--- a/1_calculation_scripts/1_7_co/results/mie_results_vle_visc_fluid.xlsx
+++ b/1_calculation_scripts/1_7_co/results/mie_results_vle_visc_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.7937457474117577</v>
       </c>
       <c r="D2">
-        <v>140.2852181375976</v>
+        <v>140.285218137598</v>
       </c>
       <c r="E2">
-        <v>4643081.9280479</v>
+        <v>4643081.928047967</v>
       </c>
       <c r="F2">
-        <v>11780.21857520803</v>
+        <v>11780.21857520814</v>
       </c>
       <c r="G2">
         <v>3.630605800069142</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>46.27928846724223</v>
       </c>
@@ -585,10 +597,16 @@
         <v>0.1424317870652948</v>
       </c>
       <c r="M2">
+        <v>0.1424316348859159</v>
+      </c>
+      <c r="N2">
         <v>1454.007413487518</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>1.521793789174527E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>47.22882914217328</v>
       </c>
@@ -626,33 +644,39 @@
         <v>0.1413001114525435</v>
       </c>
       <c r="M3">
+        <v>0.1412999563788806</v>
+      </c>
+      <c r="N3">
         <v>1383.531080139373</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>1.550736628752689E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>48.17836981710433</v>
       </c>
       <c r="B4">
-        <v>89.65505548304947</v>
+        <v>89.65505548304817</v>
       </c>
       <c r="C4">
-        <v>0.2238444555378281</v>
+        <v>0.2238444555378248</v>
       </c>
       <c r="D4">
         <v>35911.72287776091</v>
       </c>
       <c r="E4">
-        <v>7976.235554042324</v>
+        <v>7976.235554042327</v>
       </c>
       <c r="F4">
-        <v>7575.714145410576</v>
+        <v>7575.714145410581</v>
       </c>
       <c r="G4">
-        <v>42.66748599419629</v>
+        <v>42.66748599419633</v>
       </c>
       <c r="H4">
-        <v>138.3963660486007</v>
+        <v>138.3963660486008</v>
       </c>
       <c r="I4">
         <v>1.480693850669442E-09</v>
@@ -661,42 +685,48 @@
         <v>5.96663433397313E-10</v>
       </c>
       <c r="K4">
-        <v>0.0008334703391908402</v>
+        <v>0.0008334703391908407</v>
       </c>
       <c r="L4">
         <v>0.140327667957107</v>
       </c>
       <c r="M4">
+        <v>0.1403275098063603</v>
+      </c>
+      <c r="N4">
         <v>1331.227310782855</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>1.581507466954501E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>49.12791049203538</v>
+        <v>49.1279104920354</v>
       </c>
       <c r="B5">
-        <v>131.3396201147283</v>
+        <v>131.3396201147287</v>
       </c>
       <c r="C5">
-        <v>0.3215981694992601</v>
+        <v>0.321598169499261</v>
       </c>
       <c r="D5">
         <v>35555.71718526294</v>
       </c>
       <c r="E5">
-        <v>7847.919413977997</v>
+        <v>7847.919413977993</v>
       </c>
       <c r="F5">
-        <v>7439.526442200305</v>
+        <v>7439.526442200301</v>
       </c>
       <c r="G5">
-        <v>43.39048709671117</v>
+        <v>43.39048709671107</v>
       </c>
       <c r="H5">
-        <v>131.6960266585301</v>
+        <v>131.6960266585299</v>
       </c>
       <c r="I5">
-        <v>1.509476672527839E-09</v>
+        <v>1.509476672527838E-09</v>
       </c>
       <c r="J5">
         <v>6.151069678587318E-10</v>
@@ -705,21 +735,27 @@
         <v>0.0008326693501227155</v>
       </c>
       <c r="L5">
-        <v>0.139504099635099</v>
+        <v>0.1395040996350989</v>
       </c>
       <c r="M5">
+        <v>0.1395039382120029</v>
+      </c>
+      <c r="N5">
         <v>1290.953230134527</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>1.614230960190222E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>50.07745116696643</v>
+        <v>50.07745116696645</v>
       </c>
       <c r="B6">
-        <v>188.5449756407142</v>
+        <v>188.5449756407175</v>
       </c>
       <c r="C6">
-        <v>0.452947548807218</v>
+        <v>0.4529475488072257</v>
       </c>
       <c r="D6">
         <v>35217.50162898538</v>
@@ -728,162 +764,186 @@
         <v>7726.055789116072</v>
       </c>
       <c r="F6">
-        <v>7309.798871079177</v>
+        <v>7309.798871079176</v>
       </c>
       <c r="G6">
-        <v>43.19084543176805</v>
+        <v>43.19084543176797</v>
       </c>
       <c r="H6">
-        <v>124.7942832392424</v>
+        <v>124.7942832392422</v>
       </c>
       <c r="I6">
-        <v>1.538225527813895E-09</v>
+        <v>1.538225527813894E-09</v>
       </c>
       <c r="J6">
-        <v>6.344055575561266E-10</v>
+        <v>6.34405557556126E-10</v>
       </c>
       <c r="K6">
-        <v>0.0008287076996867001</v>
+        <v>0.0008287076996866993</v>
       </c>
       <c r="L6">
-        <v>0.1388187145357839</v>
+        <v>0.138818714535784</v>
       </c>
       <c r="M6">
-        <v>1259.040514848351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.1388185496318164</v>
+      </c>
+      <c r="N6">
+        <v>1259.040514848352</v>
+      </c>
+      <c r="O6">
+        <v>1.649039676448696E-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>51.02699184189748</v>
+        <v>51.0269918418975</v>
       </c>
       <c r="B7">
-        <v>265.6436854140046</v>
+        <v>265.6436854140061</v>
       </c>
       <c r="C7">
-        <v>0.6263422348486676</v>
+        <v>0.6263422348486711</v>
       </c>
       <c r="D7">
         <v>34895.65163264987</v>
       </c>
       <c r="E7">
-        <v>7610.754012907601</v>
+        <v>7610.754012907591</v>
       </c>
       <c r="F7">
-        <v>7186.642556559883</v>
+        <v>7186.642556559874</v>
       </c>
       <c r="G7">
-        <v>42.30209368276235</v>
+        <v>42.30209368276253</v>
       </c>
       <c r="H7">
-        <v>117.8488634750534</v>
+        <v>117.8488634750535</v>
       </c>
       <c r="I7">
-        <v>1.567026105432925E-09</v>
+        <v>1.567026105432926E-09</v>
       </c>
       <c r="J7">
-        <v>6.546359076870474E-10</v>
+        <v>6.546359076870475E-10</v>
       </c>
       <c r="K7">
-        <v>0.000821483617133523</v>
+        <v>0.0008214836171335223</v>
       </c>
       <c r="L7">
         <v>0.1382602494479194</v>
       </c>
       <c r="M7">
-        <v>1233.147328452572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.1382600808404855</v>
+      </c>
+      <c r="N7">
+        <v>1233.14732845257</v>
+      </c>
+      <c r="O7">
+        <v>1.686074338980207E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>51.97653251682853</v>
+        <v>51.97653251682856</v>
       </c>
       <c r="B8">
-        <v>367.8429420264922</v>
+        <v>367.8429420264961</v>
       </c>
       <c r="C8">
-        <v>0.8515569344075005</v>
+        <v>0.851556934407509</v>
       </c>
       <c r="D8">
-        <v>34588.86597865103</v>
+        <v>34588.86597865102</v>
       </c>
       <c r="E8">
-        <v>7501.989055644139</v>
+        <v>7501.989055644141</v>
       </c>
       <c r="F8">
-        <v>7070.034513187937</v>
+        <v>7070.034513187941</v>
       </c>
       <c r="G8">
-        <v>40.91615138986855</v>
+        <v>40.91615138986852</v>
       </c>
       <c r="H8">
-        <v>110.9845233921933</v>
+        <v>110.9845233921932</v>
       </c>
       <c r="I8">
-        <v>1.595964478808552E-09</v>
+        <v>1.595964478808551E-09</v>
       </c>
       <c r="J8">
-        <v>6.758791268488499E-10</v>
+        <v>6.7587912684885E-10</v>
       </c>
       <c r="K8">
-        <v>0.0008109331938084158</v>
+        <v>0.0008109331938084162</v>
       </c>
       <c r="L8">
-        <v>0.1378167336007501</v>
+        <v>0.1378167336007502</v>
       </c>
       <c r="M8">
-        <v>1211.698232027618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.1378165610523485</v>
+      </c>
+      <c r="N8">
+        <v>1211.698232027619</v>
+      </c>
+      <c r="O8">
+        <v>1.725484016757914E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>52.92607319175958</v>
+        <v>52.92607319175961</v>
       </c>
       <c r="B9">
-        <v>501.2631958994389</v>
+        <v>501.2631958994442</v>
       </c>
       <c r="C9">
-        <v>1.139756527240024</v>
+        <v>1.139756527240036</v>
       </c>
       <c r="D9">
-        <v>34295.95451913422</v>
+        <v>34295.95451913421</v>
       </c>
       <c r="E9">
-        <v>7399.630865316055</v>
+        <v>7399.63086531605</v>
       </c>
       <c r="F9">
-        <v>6959.846994396538</v>
+        <v>6959.846994396537</v>
       </c>
       <c r="G9">
-        <v>39.18847235356344</v>
+        <v>39.18847235356328</v>
       </c>
       <c r="H9">
-        <v>104.2971622257515</v>
+        <v>104.2971622257513</v>
       </c>
       <c r="I9">
-        <v>1.625126729980007E-09</v>
+        <v>1.625126729980006E-09</v>
       </c>
       <c r="J9">
-        <v>6.982208662536865E-10</v>
+        <v>6.982208662536874E-10</v>
       </c>
       <c r="K9">
-        <v>0.0007970398838686229</v>
+        <v>0.0007970398838686225</v>
       </c>
       <c r="L9">
         <v>0.1374754725616996</v>
       </c>
       <c r="M9">
-        <v>1193.587309560583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.1374752958190746</v>
+      </c>
+      <c r="N9">
+        <v>1193.587309560585</v>
+      </c>
+      <c r="O9">
+        <v>1.767426250065003E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>53.87561386669064</v>
+        <v>53.87561386669066</v>
       </c>
       <c r="B10">
-        <v>673.0138726940334</v>
+        <v>673.0138726940434</v>
       </c>
       <c r="C10">
-        <v>1.50354966618113</v>
+        <v>1.503549666181151</v>
       </c>
       <c r="D10">
         <v>34015.82725308205</v>
@@ -892,19 +952,19 @@
         <v>7303.469759097487</v>
       </c>
       <c r="F10">
-        <v>6855.872889071155</v>
+        <v>6855.872889071156</v>
       </c>
       <c r="G10">
-        <v>37.24311007894258</v>
+        <v>37.24311007894247</v>
       </c>
       <c r="H10">
-        <v>97.85798221345757</v>
+        <v>97.85798221345739</v>
       </c>
       <c r="I10">
         <v>1.654598680941657E-09</v>
       </c>
       <c r="J10">
-        <v>7.217514330571608E-10</v>
+        <v>7.217514330571621E-10</v>
       </c>
       <c r="K10">
         <v>0.0007798462301493349</v>
@@ -913,3738 +973,4290 @@
         <v>0.1372231553759698</v>
       </c>
       <c r="M10">
-        <v>1178.010387147753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.13722297416926</v>
+      </c>
+      <c r="N10">
+        <v>1178.010387147754</v>
+      </c>
+      <c r="O10">
+        <v>1.81206709847024E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>54.82515454162169</v>
+        <v>54.82515454162172</v>
       </c>
       <c r="B11">
-        <v>891.2654564550869</v>
+        <v>891.2654564550899</v>
       </c>
       <c r="C11">
-        <v>1.957031122569934</v>
+        <v>1.957031122569939</v>
       </c>
       <c r="D11">
         <v>33747.48459897468</v>
       </c>
       <c r="E11">
-        <v>7213.237938609463</v>
+        <v>7213.237938609453</v>
       </c>
       <c r="F11">
-        <v>6757.847239232133</v>
+        <v>6757.847239232125</v>
       </c>
       <c r="G11">
-        <v>35.17749124388888</v>
+        <v>35.17749124388864</v>
       </c>
       <c r="H11">
-        <v>91.71746768978682</v>
+        <v>91.7174676897865</v>
       </c>
       <c r="I11">
-        <v>1.684465725302471E-09</v>
+        <v>1.68446572530247E-09</v>
       </c>
       <c r="J11">
-        <v>7.465658706295138E-10</v>
+        <v>7.465658706295147E-10</v>
       </c>
       <c r="K11">
-        <v>0.0007594665855261764</v>
+        <v>0.0007594665855261756</v>
       </c>
       <c r="L11">
         <v>0.1370460715441308</v>
       </c>
       <c r="M11">
-        <v>1164.365290258963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.1370458855860211</v>
+      </c>
+      <c r="N11">
+        <v>1164.365290258964</v>
+      </c>
+      <c r="O11">
+        <v>1.859581097003003E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>55.77469521655273</v>
+        <v>55.77469521655277</v>
       </c>
       <c r="B12">
-        <v>1165.317308100426</v>
+        <v>1165.31730810044</v>
       </c>
       <c r="C12">
-        <v>2.515813341245289</v>
+        <v>2.515813341245317</v>
       </c>
       <c r="D12">
-        <v>33490.00871611854</v>
+        <v>33490.00871611853</v>
       </c>
       <c r="E12">
-        <v>7128.627373424213</v>
+        <v>7128.627373424216</v>
       </c>
       <c r="F12">
-        <v>6665.465123326086</v>
+        <v>6665.46512332608</v>
       </c>
       <c r="G12">
-        <v>33.06677274125584</v>
+        <v>33.06677274125582</v>
       </c>
       <c r="H12">
-        <v>85.90904525694368</v>
+        <v>85.9090452569435</v>
       </c>
       <c r="I12">
-        <v>1.71481275226426E-09</v>
+        <v>1.714812752264266E-09</v>
       </c>
       <c r="J12">
-        <v>7.727639980307221E-10</v>
+        <v>7.727639980307238E-10</v>
       </c>
       <c r="K12">
-        <v>0.0007360988273645156</v>
+        <v>0.0007360988273645139</v>
       </c>
       <c r="L12">
         <v>0.1369304111822395</v>
       </c>
       <c r="M12">
-        <v>1152.190105754061</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.136930220167129</v>
+      </c>
+      <c r="N12">
+        <v>1152.190105754059</v>
+      </c>
+      <c r="O12">
+        <v>1.910151105314375E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>56.72423589148379</v>
+        <v>56.72423589148383</v>
       </c>
       <c r="B13">
-        <v>1505.660670502525</v>
+        <v>1505.660670502527</v>
       </c>
       <c r="C13">
-        <v>3.197047818922408</v>
+        <v>3.197047818922409</v>
       </c>
       <c r="D13">
-        <v>33242.55574811629</v>
+        <v>33242.55574811628</v>
       </c>
       <c r="E13">
-        <v>7049.30439585052</v>
+        <v>7049.304395850523</v>
       </c>
       <c r="F13">
-        <v>6578.396248281739</v>
+        <v>6578.396248281741</v>
       </c>
       <c r="G13">
-        <v>30.96772170066371</v>
+        <v>30.96772170066365</v>
       </c>
       <c r="H13">
-        <v>80.4523523216244</v>
+        <v>80.45235232162422</v>
       </c>
       <c r="I13">
-        <v>1.74572415422674E-09</v>
+        <v>1.745724154226742E-09</v>
       </c>
       <c r="J13">
-        <v>8.00450400447271E-10</v>
+        <v>8.004504004472721E-10</v>
       </c>
       <c r="K13">
-        <v>0.0007100324270722257</v>
+        <v>0.0007100324270722237</v>
       </c>
       <c r="L13">
         <v>0.1368626134068084</v>
       </c>
       <c r="M13">
-        <v>1141.123702747416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.136862417010005</v>
+      </c>
+      <c r="N13">
+        <v>1141.123702747415</v>
+      </c>
+      <c r="O13">
+        <v>1.963968033821047E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>57.67377656641484</v>
+        <v>57.67377656641488</v>
       </c>
       <c r="B14">
         <v>1924.03638609566</v>
       </c>
       <c r="C14">
-        <v>4.019437024615471</v>
+        <v>4.019437024615468</v>
       </c>
       <c r="D14">
-        <v>33004.3488791124</v>
+        <v>33004.34887911239</v>
       </c>
       <c r="E14">
-        <v>6974.92139553804</v>
+        <v>6974.921395538029</v>
       </c>
       <c r="F14">
-        <v>6496.296639030679</v>
+        <v>6496.29663903067</v>
       </c>
       <c r="G14">
-        <v>28.92210301054927</v>
+        <v>28.92210301054916</v>
       </c>
       <c r="H14">
-        <v>75.35608788015676</v>
+        <v>75.35608788015645</v>
       </c>
       <c r="I14">
-        <v>1.777283909177867E-09</v>
+        <v>1.777283909177868E-09</v>
       </c>
       <c r="J14">
-        <v>8.297343620040972E-10</v>
+        <v>8.297343620040989E-10</v>
       </c>
       <c r="K14">
-        <v>0.0006816499949432066</v>
+        <v>0.0006816499949432053</v>
       </c>
       <c r="L14">
         <v>0.1368297251652902</v>
       </c>
       <c r="M14">
-        <v>1130.879797652959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.1368295230422472</v>
+      </c>
+      <c r="N14">
+        <v>1130.879797652958</v>
+      </c>
+      <c r="O14">
+        <v>2.02123043046518E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>58.62331724134589</v>
+        <v>58.62331724134594</v>
       </c>
       <c r="B15">
-        <v>2433.486924938155</v>
+        <v>2433.486924938171</v>
       </c>
       <c r="C15">
-        <v>5.003237655745637</v>
+        <v>5.003237655745666</v>
       </c>
       <c r="D15">
-        <v>32774.67210798529</v>
+        <v>32774.67210798528</v>
       </c>
       <c r="E15">
-        <v>6905.126011128919</v>
+        <v>6905.126011128924</v>
       </c>
       <c r="F15">
-        <v>6418.817822925339</v>
+        <v>6418.817822925344</v>
       </c>
       <c r="G15">
-        <v>26.95958884391356</v>
+        <v>26.9595888439135</v>
       </c>
       <c r="H15">
-        <v>70.62045073021075</v>
+        <v>70.62045073021048</v>
       </c>
       <c r="I15">
-        <v>1.809575729285834E-09</v>
+        <v>1.809575729285837E-09</v>
       </c>
       <c r="J15">
-        <v>8.607297322371809E-10</v>
+        <v>8.607297322371835E-10</v>
       </c>
       <c r="K15">
-        <v>0.0006514198359957392</v>
+        <v>0.0006514198359957378</v>
       </c>
       <c r="L15">
         <v>0.1368197348140936</v>
       </c>
       <c r="M15">
-        <v>1121.229506956266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.1368195265997024</v>
+      </c>
+      <c r="N15">
+        <v>1121.229506956264</v>
+      </c>
+      <c r="O15">
+        <v>2.082143911903829E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>59.57285791627694</v>
+        <v>59.57285791627699</v>
       </c>
       <c r="B16">
-        <v>3048.402393432532</v>
+        <v>3048.402393432549</v>
       </c>
       <c r="C16">
-        <v>6.170256078773184</v>
+        <v>6.170256078773214</v>
       </c>
       <c r="D16">
-        <v>32552.86465800458</v>
+        <v>32552.86465800457</v>
       </c>
       <c r="E16">
-        <v>6839.56820091489</v>
+        <v>6839.568200914889</v>
       </c>
       <c r="F16">
-        <v>6345.613891252518</v>
+        <v>6345.613891252512</v>
       </c>
       <c r="G16">
-        <v>25.10022308618747</v>
+        <v>25.10022308618724</v>
       </c>
       <c r="H16">
-        <v>66.23918984271575</v>
+        <v>66.23918984271538</v>
       </c>
       <c r="I16">
-        <v>1.842683267673163E-09</v>
+        <v>1.842683267673167E-09</v>
       </c>
       <c r="J16">
-        <v>8.935547176662724E-10</v>
+        <v>8.935547176662741E-10</v>
       </c>
       <c r="K16">
-        <v>0.0006198782708980636</v>
+        <v>0.0006198782708980623</v>
       </c>
       <c r="L16">
         <v>0.136821850472949</v>
       </c>
       <c r="M16">
+        <v>0.1368216357809066</v>
+      </c>
+      <c r="N16">
         <v>1111.989329098238</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>2.146920423797618E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>60.52239859120798</v>
+        <v>60.52239859120805</v>
       </c>
       <c r="B17">
-        <v>3784.560268022828</v>
+        <v>3784.56026802289</v>
       </c>
       <c r="C17">
-        <v>7.543836844700765</v>
+        <v>7.543836844700883</v>
       </c>
       <c r="D17">
-        <v>32338.31594999109</v>
+        <v>32338.31594999108</v>
       </c>
       <c r="E17">
-        <v>6777.905544881241</v>
+        <v>6777.905544881235</v>
       </c>
       <c r="F17">
-        <v>6276.346790492094</v>
+        <v>6276.346790492087</v>
       </c>
       <c r="G17">
-        <v>23.35648349086129</v>
+        <v>23.35648349086118</v>
       </c>
       <c r="H17">
-        <v>62.20130257718706</v>
+        <v>62.20130257718678</v>
       </c>
       <c r="I17">
-        <v>1.876690376135115E-09</v>
+        <v>1.876690376135118E-09</v>
       </c>
       <c r="J17">
-        <v>9.283315904101486E-10</v>
+        <v>9.283315904101488E-10</v>
       </c>
       <c r="K17">
-        <v>0.0005876023868849844</v>
+        <v>0.0005876023868849826</v>
       </c>
       <c r="L17">
-        <v>0.1368267011397091</v>
+        <v>0.1368267011397092</v>
       </c>
       <c r="M17">
-        <v>1103.012637832036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.1368264795619775</v>
+      </c>
+      <c r="N17">
+        <v>1103.012637832035</v>
+      </c>
+      <c r="O17">
+        <v>2.215777316527013E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>61.47193926613904</v>
+        <v>61.4719392661391</v>
       </c>
       <c r="B18">
-        <v>4659.158674397241</v>
+        <v>4659.158674397358</v>
       </c>
       <c r="C18">
-        <v>9.148845200585269</v>
+        <v>9.148845200585491</v>
       </c>
       <c r="D18">
-        <v>32130.46107600978</v>
+        <v>32130.46107600977</v>
       </c>
       <c r="E18">
-        <v>6719.807093574826</v>
+        <v>6719.807093574823</v>
       </c>
       <c r="F18">
         <v>6210.690159045957</v>
       </c>
       <c r="G18">
-        <v>21.73498840570067</v>
+        <v>21.73498840570068</v>
       </c>
       <c r="H18">
-        <v>58.49242133919933</v>
+        <v>58.49242133919923</v>
       </c>
       <c r="I18">
-        <v>1.911681407488046E-09</v>
+        <v>1.911681407488045E-09</v>
       </c>
       <c r="J18">
-        <v>9.651863067024087E-10</v>
+        <v>9.651863067024107E-10</v>
       </c>
       <c r="K18">
-        <v>0.0005551760550695965</v>
+        <v>0.0005551760550695949</v>
       </c>
       <c r="L18">
         <v>0.1368264475095767</v>
       </c>
       <c r="M18">
+        <v>0.1368262186159542</v>
+      </c>
+      <c r="N18">
         <v>1094.183450437005</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>2.288936225240366E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>62.42147994107009</v>
+        <v>62.42147994107015</v>
       </c>
       <c r="B19">
-        <v>5690.843110270362</v>
+        <v>5690.843110270402</v>
       </c>
       <c r="C19">
-        <v>11.01164453926824</v>
+        <v>11.0116445392683</v>
       </c>
       <c r="D19">
-        <v>31928.77671834112</v>
+        <v>31928.7767183411</v>
       </c>
       <c r="E19">
-        <v>6664.956039681654</v>
+        <v>6664.956039681662</v>
       </c>
       <c r="F19">
-        <v>6148.331985621049</v>
+        <v>6148.331985621054</v>
       </c>
       <c r="G19">
-        <v>20.2378950086873</v>
+        <v>20.23789500868719</v>
       </c>
       <c r="H19">
-        <v>55.09593016290539</v>
+        <v>55.09593016290516</v>
       </c>
       <c r="I19">
-        <v>1.947741557237433E-09</v>
+        <v>1.947741557237441E-09</v>
       </c>
       <c r="J19">
-        <v>1.004248029550331E-09</v>
+        <v>1.004248029550335E-09</v>
       </c>
       <c r="K19">
-        <v>0.0005231538202723646</v>
+        <v>0.0005231538202723608</v>
       </c>
       <c r="L19">
-        <v>0.136814798471071</v>
+        <v>0.1368147984710709</v>
       </c>
       <c r="M19">
-        <v>1085.411659542372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.1368145618088963</v>
+      </c>
+      <c r="N19">
+        <v>1085.41165954237</v>
+      </c>
+      <c r="O19">
+        <v>2.366621746721674E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>63.37102061600114</v>
+        <v>63.3710206160012</v>
       </c>
       <c r="B20">
-        <v>6899.726587257063</v>
+        <v>6899.726587257172</v>
       </c>
       <c r="C20">
-        <v>13.16006974080357</v>
+        <v>13.16006974080377</v>
       </c>
       <c r="D20">
-        <v>31732.77746511946</v>
+        <v>31732.77746511944</v>
       </c>
       <c r="E20">
-        <v>6613.051449146835</v>
+        <v>6613.051449146834</v>
       </c>
       <c r="F20">
-        <v>6088.976326399187</v>
+        <v>6088.976326399186</v>
       </c>
       <c r="G20">
-        <v>18.86403364958501</v>
+        <v>18.86403364958492</v>
       </c>
       <c r="H20">
-        <v>51.99385104818086</v>
+        <v>51.99385104818067</v>
       </c>
       <c r="I20">
-        <v>1.98495724029285E-09</v>
+        <v>1.984957240292851E-09</v>
       </c>
       <c r="J20">
-        <v>1.045648551673556E-09</v>
+        <v>1.045648551673559E-09</v>
       </c>
       <c r="K20">
-        <v>0.0004920279978936062</v>
+        <v>0.000492027997893604</v>
       </c>
       <c r="L20">
         <v>0.1367869376164798</v>
       </c>
       <c r="M20">
+        <v>0.1367866927104888</v>
+      </c>
+      <c r="N20">
         <v>1076.629195373976</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>2.449059910208401E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>64.32056129093219</v>
+        <v>64.32056129093228</v>
       </c>
       <c r="B21">
-        <v>8307.403242909693</v>
+        <v>8307.403242909781</v>
       </c>
       <c r="C21">
-        <v>15.62339736015165</v>
+        <v>15.6233973601518</v>
       </c>
       <c r="D21">
-        <v>31542.01247977013</v>
+        <v>31542.01247977011</v>
       </c>
       <c r="E21">
-        <v>6563.809251997111</v>
+        <v>6563.809251997101</v>
       </c>
       <c r="F21">
-        <v>6032.344281446883</v>
+        <v>6032.344281446872</v>
       </c>
       <c r="G21">
-        <v>17.60981917130266</v>
+        <v>17.60981917130254</v>
       </c>
       <c r="H21">
-        <v>49.16753676371273</v>
+        <v>49.16753676371248</v>
       </c>
       <c r="I21">
-        <v>2.023416499493912E-09</v>
+        <v>2.023416499493914E-09</v>
       </c>
       <c r="J21">
-        <v>1.089521617283269E-09</v>
+        <v>1.089521617283274E-09</v>
       </c>
       <c r="K21">
-        <v>0.0004622036877030937</v>
+        <v>0.000462203687703091</v>
       </c>
       <c r="L21">
-        <v>0.1367393711781901</v>
+        <v>0.13673937117819</v>
       </c>
       <c r="M21">
+        <v>0.1367391175305455</v>
+      </c>
+      <c r="N21">
         <v>1067.786774476659</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>2.536476444990084E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>65.27010196586325</v>
+        <v>65.27010196586332</v>
       </c>
       <c r="B22">
-        <v>9936.955545836283</v>
+        <v>9936.955545836503</v>
       </c>
       <c r="C22">
-        <v>18.43231360639211</v>
+        <v>18.43231360639249</v>
       </c>
       <c r="D22">
-        <v>31356.06248635782</v>
+        <v>31356.0624863578</v>
       </c>
       <c r="E22">
-        <v>6516.962659762629</v>
+        <v>6516.962659762617</v>
       </c>
       <c r="F22">
-        <v>5978.174397540306</v>
+        <v>5978.174397540293</v>
       </c>
       <c r="G22">
-        <v>16.4699757159463</v>
+        <v>16.46997571594612</v>
       </c>
       <c r="H22">
-        <v>46.59820298547614</v>
+        <v>46.59820298547582</v>
       </c>
       <c r="I22">
-        <v>2.063209443724424E-09</v>
+        <v>2.063209443724427E-09</v>
       </c>
       <c r="J22">
-        <v>1.136002144206735E-09</v>
+        <v>1.136002144206738E-09</v>
       </c>
       <c r="K22">
-        <v>0.0004339846272230042</v>
+        <v>0.0004339846272230016</v>
       </c>
       <c r="L22">
-        <v>0.1366697140479636</v>
+        <v>0.1366697140479635</v>
       </c>
       <c r="M22">
-        <v>1058.851023237886</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.1366694511384781</v>
+      </c>
+      <c r="N22">
+        <v>1058.851023237885</v>
+      </c>
+      <c r="O22">
+        <v>2.629094854308635E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>66.21964264079431</v>
+        <v>66.21964264079438</v>
       </c>
       <c r="B23">
-        <v>11812.95528324708</v>
+        <v>11812.95528324735</v>
       </c>
       <c r="C23">
-        <v>21.61888103914252</v>
+        <v>21.618881039143</v>
       </c>
       <c r="D23">
-        <v>31174.53703729657</v>
+        <v>31174.53703729655</v>
       </c>
       <c r="E23">
         <v>6472.262146976171</v>
       </c>
       <c r="F23">
-        <v>5926.222635142187</v>
+        <v>5926.222635142185</v>
       </c>
       <c r="G23">
-        <v>15.4381069862551</v>
+        <v>15.43810698625487</v>
       </c>
       <c r="H23">
-        <v>44.26732856646056</v>
+        <v>44.26732856646025</v>
       </c>
       <c r="I23">
-        <v>2.104428714366881E-09</v>
+        <v>2.104428714366885E-09</v>
       </c>
       <c r="J23">
-        <v>1.185225351281741E-09</v>
+        <v>1.185225351281746E-09</v>
       </c>
       <c r="K23">
-        <v>0.0004075704723985069</v>
+        <v>0.0004075704723985049</v>
       </c>
       <c r="L23">
         <v>0.1365764335994083</v>
       </c>
       <c r="M23">
-        <v>1049.80185740154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.136576160885977</v>
+      </c>
+      <c r="N23">
+        <v>1049.801857401541</v>
+      </c>
+      <c r="O23">
+        <v>2.727134312614358E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>67.16918331572533</v>
+        <v>67.16918331572543</v>
       </c>
       <c r="B24">
-        <v>13961.45857991466</v>
+        <v>13961.4585799149</v>
       </c>
       <c r="C24">
-        <v>25.21650487880071</v>
+        <v>25.21650487880111</v>
       </c>
       <c r="D24">
-        <v>30997.07203365919</v>
+        <v>30997.07203365917</v>
       </c>
       <c r="E24">
-        <v>6429.475108717242</v>
+        <v>6429.475108717239</v>
       </c>
       <c r="F24">
-        <v>5876.262011731496</v>
+        <v>5876.262011731494</v>
       </c>
       <c r="G24">
-        <v>14.50713953589331</v>
+        <v>14.50713953589328</v>
       </c>
       <c r="H24">
-        <v>42.15694873836036</v>
+        <v>42.15694873836024</v>
       </c>
       <c r="I24">
-        <v>2.147169979781249E-09</v>
+        <v>2.147169979781253E-09</v>
       </c>
       <c r="J24">
-        <v>1.237325799755738E-09</v>
+        <v>1.237325799755743E-09</v>
       </c>
       <c r="K24">
-        <v>0.0003830639592518899</v>
+        <v>0.000383063959251888</v>
       </c>
       <c r="L24">
         <v>0.13645857185203</v>
       </c>
       <c r="M24">
-        <v>1040.630062311409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.1364582887712888</v>
+      </c>
+      <c r="N24">
+        <v>1040.630062311408</v>
+      </c>
+      <c r="O24">
+        <v>2.830807411374533E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>68.11872399065639</v>
+        <v>68.11872399065648</v>
       </c>
       <c r="B25">
-        <v>16409.99524932215</v>
+        <v>16409.99524932231</v>
       </c>
       <c r="C25">
-        <v>29.25989978979552</v>
+        <v>29.25989978979577</v>
       </c>
       <c r="D25">
-        <v>30823.32747164279</v>
+        <v>30823.32747164277</v>
       </c>
       <c r="E25">
-        <v>6388.385284390587</v>
+        <v>6388.385284390585</v>
       </c>
       <c r="F25">
-        <v>5828.082011881365</v>
+        <v>5828.082011881364</v>
       </c>
       <c r="G25">
-        <v>13.66966257667634</v>
+        <v>13.66966257667624</v>
       </c>
       <c r="H25">
-        <v>40.2498623113834</v>
+        <v>40.24986231138321</v>
       </c>
       <c r="I25">
-        <v>2.191532458379388E-09</v>
+        <v>2.191532458379389E-09</v>
       </c>
       <c r="J25">
-        <v>1.292436361496724E-09</v>
+        <v>1.292436361496728E-09</v>
       </c>
       <c r="K25">
-        <v>0.0003604850251827133</v>
+        <v>0.000360485025182711</v>
       </c>
       <c r="L25">
-        <v>0.1363154653596337</v>
+        <v>0.1363154653596336</v>
       </c>
       <c r="M25">
+        <v>0.1363151713278549</v>
+      </c>
+      <c r="N25">
         <v>1031.335059335027</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="O25">
+        <v>2.940317787063783E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>69.06826466558745</v>
+        <v>69.06826466558753</v>
       </c>
       <c r="B26">
-        <v>19187.55282107742</v>
+        <v>19187.55282107784</v>
       </c>
       <c r="C26">
-        <v>33.78505795182685</v>
+        <v>33.78505795182755</v>
       </c>
       <c r="D26">
-        <v>30652.98539166235</v>
+        <v>30652.98539166233</v>
       </c>
       <c r="E26">
-        <v>6348.792019579475</v>
+        <v>6348.792019579465</v>
       </c>
       <c r="F26">
-        <v>5781.487836102225</v>
+        <v>5781.487836102213</v>
       </c>
       <c r="G26">
-        <v>12.9181841055613</v>
+        <v>12.91818410556133</v>
       </c>
       <c r="H26">
-        <v>38.52977055911246</v>
+        <v>38.52977055911241</v>
       </c>
       <c r="I26">
-        <v>2.237619471714632E-09</v>
+        <v>2.237619471714637E-09</v>
       </c>
       <c r="J26">
-        <v>1.350687130987346E-09</v>
+        <v>1.350687130987352E-09</v>
       </c>
       <c r="K26">
-        <v>0.0003397885403786264</v>
+        <v>0.0003397885403786247</v>
       </c>
       <c r="L26">
-        <v>0.136146479615983</v>
+        <v>0.1361464796159829</v>
       </c>
       <c r="M26">
-        <v>1021.922866703282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.1361461740302156</v>
+      </c>
+      <c r="N26">
+        <v>1021.92286670328</v>
+      </c>
+      <c r="O26">
+        <v>3.05585767328517E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>70.01780534051851</v>
+        <v>70.01780534051859</v>
       </c>
       <c r="B27">
-        <v>22324.55562322462</v>
+        <v>22324.5556232251</v>
       </c>
       <c r="C27">
-        <v>38.82921918495404</v>
+        <v>38.82921918495482</v>
       </c>
       <c r="D27">
-        <v>30485.74800911145</v>
+        <v>30485.74800911143</v>
       </c>
       <c r="E27">
-        <v>6310.509422527075</v>
+        <v>6310.509422527059</v>
       </c>
       <c r="F27">
-        <v>5736.299545150771</v>
+        <v>5736.299545150757</v>
       </c>
       <c r="G27">
-        <v>12.2453199007327</v>
+        <v>12.24531990073266</v>
       </c>
       <c r="H27">
-        <v>36.9813624887319</v>
+        <v>36.98136248873177</v>
       </c>
       <c r="I27">
-        <v>2.285539029822766E-09</v>
+        <v>2.285539029822769E-09</v>
       </c>
       <c r="J27">
-        <v>1.412204302123063E-09</v>
+        <v>1.412204302123069E-09</v>
       </c>
       <c r="K27">
-        <v>0.000320882662668158</v>
+        <v>0.0003208826626681558</v>
       </c>
       <c r="L27">
         <v>0.1359507714056236</v>
       </c>
       <c r="M27">
-        <v>1012.404272173416</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.1359504536450809</v>
+      </c>
+      <c r="N27">
+        <v>1012.404272173415</v>
+      </c>
+      <c r="O27">
+        <v>3.177605426712215E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>70.96734601544954</v>
+        <v>70.96734601544965</v>
       </c>
       <c r="B28">
-        <v>25852.83932393587</v>
+        <v>25852.83932393643</v>
       </c>
       <c r="C28">
-        <v>44.43084384230049</v>
+        <v>44.43084384230139</v>
       </c>
       <c r="D28">
-        <v>30321.33600809452</v>
+        <v>30321.33600809449</v>
       </c>
       <c r="E28">
         <v>6273.365459190894</v>
       </c>
       <c r="F28">
-        <v>5692.35114386883</v>
+        <v>5692.35114386882</v>
       </c>
       <c r="G28">
-        <v>11.64392911018979</v>
+        <v>11.64392911018978</v>
       </c>
       <c r="H28">
-        <v>35.5903586037158</v>
+        <v>35.59035860371577</v>
       </c>
       <c r="I28">
-        <v>2.335404451846524E-09</v>
+        <v>2.335404451846542E-09</v>
       </c>
       <c r="J28">
-        <v>1.477109034536329E-09</v>
+        <v>1.477109034536338E-09</v>
       </c>
       <c r="K28">
-        <v>0.0003036456452572744</v>
+        <v>0.0003036456452572718</v>
       </c>
       <c r="L28">
-        <v>0.135727088998729</v>
+        <v>0.1357270889987289</v>
       </c>
       <c r="M28">
-        <v>1002.793234496342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.1357267584264206</v>
+      </c>
+      <c r="N28">
+        <v>1002.793234496339</v>
+      </c>
+      <c r="O28">
+        <v>3.305723083201211E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>71.91688669038059</v>
+        <v>71.91688669038069</v>
       </c>
       <c r="B29">
-        <v>29805.62135459259</v>
+        <v>29805.62135459317</v>
       </c>
       <c r="C29">
-        <v>50.6295891311431</v>
+        <v>50.62958913114403</v>
       </c>
       <c r="D29">
-        <v>30159.4869814372</v>
+        <v>30159.48698143718</v>
       </c>
       <c r="E29">
         <v>6237.201020511245</v>
       </c>
       <c r="F29">
-        <v>5649.489638285902</v>
+        <v>5649.489638285899</v>
       </c>
       <c r="G29">
-        <v>11.1072077330838</v>
+        <v>11.10720773308374</v>
       </c>
       <c r="H29">
-        <v>34.34352304581244</v>
+        <v>34.34352304581237</v>
       </c>
       <c r="I29">
-        <v>2.387335025763665E-09</v>
+        <v>2.387335025763674E-09</v>
       </c>
       <c r="J29">
-        <v>1.545516337275617E-09</v>
+        <v>1.545516337275623E-09</v>
       </c>
       <c r="K29">
-        <v>0.00028793985319621</v>
+        <v>0.0002879398531962086</v>
       </c>
       <c r="L29">
         <v>0.1354736168335453</v>
       </c>
       <c r="M29">
-        <v>993.1055242954275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.1354732727981448</v>
+      </c>
+      <c r="N29">
+        <v>993.1055242954261</v>
+      </c>
+      <c r="O29">
+        <v>3.44035400547529E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>72.86642736531165</v>
+        <v>72.86642736531175</v>
       </c>
       <c r="B30">
-        <v>34217.46764600316</v>
+        <v>34217.46764600333</v>
       </c>
       <c r="C30">
-        <v>57.46628947112935</v>
+        <v>57.46628947112957</v>
       </c>
       <c r="D30">
-        <v>29999.95400205435</v>
+        <v>29999.95400205434</v>
       </c>
       <c r="E30">
-        <v>6201.868987188041</v>
+        <v>6201.868987188032</v>
       </c>
       <c r="F30">
-        <v>5607.574091349259</v>
+        <v>5607.574091349253</v>
       </c>
       <c r="G30">
-        <v>10.62874923752932</v>
+        <v>10.62874923752931</v>
       </c>
       <c r="H30">
-        <v>33.22865212354755</v>
+        <v>33.22865212354747</v>
       </c>
       <c r="I30">
-        <v>2.441456711832383E-09</v>
+        <v>2.441456711832388E-09</v>
       </c>
       <c r="J30">
-        <v>1.617533999941291E-09</v>
+        <v>1.617533999941298E-09</v>
       </c>
       <c r="K30">
-        <v>0.000273622542608998</v>
+        <v>0.0002736225426089966</v>
       </c>
       <c r="L30">
         <v>0.1351878685630001</v>
       </c>
       <c r="M30">
-        <v>983.3576057566697</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.1351875104009314</v>
+      </c>
+      <c r="N30">
+        <v>983.3576057566685</v>
+      </c>
+      <c r="O30">
+        <v>3.581620686815611E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>73.81596804024269</v>
+        <v>73.81596804024281</v>
       </c>
       <c r="B31">
-        <v>39124.25611225485</v>
+        <v>39124.25611225536</v>
       </c>
       <c r="C31">
-        <v>64.98294144926193</v>
+        <v>64.98294144926268</v>
       </c>
       <c r="D31">
-        <v>29842.50431232555</v>
+        <v>29842.50431232553</v>
       </c>
       <c r="E31">
-        <v>6167.233310558289</v>
+        <v>6167.233310558283</v>
       </c>
       <c r="F31">
-        <v>5566.474695923077</v>
+        <v>5566.474695923072</v>
       </c>
       <c r="G31">
-        <v>10.2025798282582</v>
+        <v>10.20257982825813</v>
       </c>
       <c r="H31">
-        <v>32.23454565838679</v>
+        <v>32.23454565838661</v>
       </c>
       <c r="I31">
         <v>2.497902895183876E-09</v>
       </c>
       <c r="J31">
-        <v>1.693261602607463E-09</v>
+        <v>1.693261602607471E-09</v>
       </c>
       <c r="K31">
-        <v>0.0002605535187400505</v>
+        <v>0.0002605535187400495</v>
       </c>
       <c r="L31">
         <v>0.1348666300789164</v>
       </c>
       <c r="M31">
-        <v>973.5657509000746</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.1348662571166389</v>
+      </c>
+      <c r="N31">
+        <v>973.5657509000744</v>
+      </c>
+      <c r="O31">
+        <v>3.729622775667367E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>74.76550871517375</v>
+        <v>74.76550871517387</v>
       </c>
       <c r="B32">
-        <v>44563.13731323191</v>
+        <v>44563.13731323255</v>
       </c>
       <c r="C32">
-        <v>73.22269388665651</v>
+        <v>73.22269388665747</v>
       </c>
       <c r="D32">
-        <v>29686.91811952211</v>
+        <v>29686.9181195221</v>
       </c>
       <c r="E32">
-        <v>6133.168122830497</v>
+        <v>6133.168122830494</v>
       </c>
       <c r="F32">
         <v>5526.071878345898</v>
       </c>
       <c r="G32">
-        <v>9.823174432170944</v>
+        <v>9.823174432170893</v>
       </c>
       <c r="H32">
-        <v>31.35096626895819</v>
+        <v>31.35096626895806</v>
       </c>
       <c r="I32">
-        <v>2.55681519384537E-09</v>
+        <v>2.556815193845372E-09</v>
       </c>
       <c r="J32">
-        <v>1.772789635874429E-09</v>
+        <v>1.772789635874435E-09</v>
       </c>
       <c r="K32">
-        <v>0.0002486001085089187</v>
+        <v>0.0002486001085089174</v>
       </c>
       <c r="L32">
-        <v>0.134505952260069</v>
+        <v>0.1345059522600689</v>
       </c>
       <c r="M32">
-        <v>963.7453697946302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.1345055638165305</v>
+      </c>
+      <c r="N32">
+        <v>963.7453697946299</v>
+      </c>
+      <c r="O32">
+        <v>3.884435383967027E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>75.71504939010481</v>
+        <v>75.71504939010492</v>
       </c>
       <c r="B33">
-        <v>50572.49271814947</v>
+        <v>50572.49271815021</v>
       </c>
       <c r="C33">
-        <v>82.22984349359932</v>
+        <v>82.22984349360043</v>
       </c>
       <c r="D33">
-        <v>29532.98748656633</v>
+        <v>29532.9874865663</v>
       </c>
       <c r="E33">
-        <v>6099.556885725278</v>
+        <v>6099.55688572528</v>
       </c>
       <c r="F33">
         <v>5486.255441615869</v>
       </c>
       <c r="G33">
-        <v>9.485458270377803</v>
+        <v>9.485458270377682</v>
       </c>
       <c r="H33">
-        <v>30.56859063170157</v>
+        <v>30.56859063170138</v>
       </c>
       <c r="I33">
-        <v>2.618344329388129E-09</v>
+        <v>2.61834432938814E-09</v>
       </c>
       <c r="J33">
-        <v>1.856198761102917E-09</v>
+        <v>1.856198761102929E-09</v>
       </c>
       <c r="K33">
-        <v>0.0002376400096360922</v>
+        <v>0.0002376400096360907</v>
       </c>
       <c r="L33">
-        <v>0.1341011915821585</v>
+        <v>0.1341011915821584</v>
       </c>
       <c r="M33">
-        <v>953.9105338135091</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.1341007869713847</v>
+      </c>
+      <c r="N33">
+        <v>953.910533813508</v>
+      </c>
+      <c r="O33">
+        <v>4.046107736901887E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>76.66459006503585</v>
+        <v>76.66459006503597</v>
       </c>
       <c r="B34">
-        <v>57191.89097942225</v>
+        <v>57191.89097942298</v>
       </c>
       <c r="C34">
-        <v>92.04983655838195</v>
+        <v>92.04983655838302</v>
       </c>
       <c r="D34">
-        <v>29380.51530850204</v>
+        <v>29380.51530850202</v>
       </c>
       <c r="E34">
-        <v>6066.291583286351</v>
+        <v>6066.291583286346</v>
       </c>
       <c r="F34">
-        <v>5446.923753979423</v>
+        <v>5446.923753979415</v>
       </c>
       <c r="G34">
-        <v>9.184797895670775</v>
+        <v>9.18479789567073</v>
       </c>
       <c r="H34">
-        <v>29.87895586918772</v>
+        <v>29.87895586918762</v>
       </c>
       <c r="I34">
-        <v>2.682651068381454E-09</v>
+        <v>2.682651068381464E-09</v>
       </c>
       <c r="J34">
-        <v>1.943559238261266E-09</v>
+        <v>1.943559238261279E-09</v>
       </c>
       <c r="K34">
-        <v>0.0002275625768736886</v>
+        <v>0.0002275625768736876</v>
       </c>
       <c r="L34">
-        <v>0.1336470952985476</v>
+        <v>0.1336470952985475</v>
       </c>
       <c r="M34">
-        <v>944.0736652200354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.1336466738323261</v>
+      </c>
+      <c r="N34">
+        <v>944.0736652200339</v>
+      </c>
+      <c r="O34">
+        <v>4.214662214076918E-07</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>77.61413073996691</v>
+        <v>77.61413073996702</v>
       </c>
       <c r="B35">
-        <v>64462.04260978139</v>
+        <v>64462.04260978256</v>
       </c>
       <c r="C35">
-        <v>102.7292770931349</v>
+        <v>102.7292770931367</v>
       </c>
       <c r="D35">
-        <v>29229.31436603185</v>
+        <v>29229.31436603183</v>
       </c>
       <c r="E35">
-        <v>6033.271962090045</v>
+        <v>6033.271962090036</v>
       </c>
       <c r="F35">
-        <v>5407.982986158027</v>
+        <v>5407.982986158024</v>
       </c>
       <c r="G35">
-        <v>8.916984762268827</v>
+        <v>8.9169847622688</v>
       </c>
       <c r="H35">
-        <v>29.27440349483698</v>
+        <v>29.27440349483692</v>
       </c>
       <c r="I35">
-        <v>2.749907243918269E-09</v>
+        <v>2.749907243918268E-09</v>
       </c>
       <c r="J35">
-        <v>2.034930544942587E-09</v>
+        <v>2.034930544942595E-09</v>
       </c>
       <c r="K35">
-        <v>0.0002182690348580516</v>
+        <v>0.000218269034858051</v>
       </c>
       <c r="L35">
         <v>0.133137926681767</v>
       </c>
       <c r="M35">
-        <v>934.2453649097962</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.1331374876723848</v>
+      </c>
+      <c r="N35">
+        <v>934.2453649097965</v>
+      </c>
+      <c r="O35">
+        <v>4.390093821796012E-07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>78.56367141489795</v>
+        <v>78.56367141489808</v>
       </c>
       <c r="B36">
-        <v>72424.75343665887</v>
+        <v>72424.75343665987</v>
       </c>
       <c r="C36">
-        <v>114.3159418476063</v>
+        <v>114.3159418476077</v>
       </c>
       <c r="D36">
-        <v>29079.20644834267</v>
+        <v>29079.20644834265</v>
       </c>
       <c r="E36">
-        <v>6000.404820148932</v>
+        <v>6000.404820148937</v>
       </c>
       <c r="F36">
-        <v>5369.346398513632</v>
+        <v>5369.346398513637</v>
       </c>
       <c r="G36">
-        <v>8.678213731762744</v>
+        <v>8.678213731762686</v>
       </c>
       <c r="H36">
-        <v>28.74802275819389</v>
+        <v>28.74802275819377</v>
       </c>
       <c r="I36">
-        <v>2.820296867683551E-09</v>
+        <v>2.82029686768356E-09</v>
       </c>
       <c r="J36">
-        <v>2.130361205141065E-09</v>
+        <v>2.130361205141078E-09</v>
       </c>
       <c r="K36">
-        <v>0.0002096720090000086</v>
+        <v>0.0002096720090000075</v>
       </c>
       <c r="L36">
         <v>0.1325676249594314</v>
       </c>
       <c r="M36">
-        <v>924.4343506252536</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.132567167722419</v>
+      </c>
+      <c r="N36">
+        <v>924.4343506252524</v>
+      </c>
+      <c r="O36">
+        <v>4.572370123822901E-07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>79.513212089829</v>
+        <v>79.51321208982914</v>
       </c>
       <c r="B37">
-        <v>81122.87718730753</v>
+        <v>81122.87718730826</v>
       </c>
       <c r="C37">
-        <v>126.8588026006978</v>
+        <v>126.8588026006988</v>
       </c>
       <c r="D37">
-        <v>28930.02153821218</v>
+        <v>28930.02153821216</v>
       </c>
       <c r="E37">
-        <v>5967.603344354662</v>
+        <v>5967.603344354654</v>
       </c>
       <c r="F37">
-        <v>5330.933678004989</v>
+        <v>5330.933678004981</v>
       </c>
       <c r="G37">
-        <v>8.465058380859242</v>
+        <v>8.465058380859146</v>
       </c>
       <c r="H37">
-        <v>28.29359476518015</v>
+        <v>28.29359476518005</v>
       </c>
       <c r="I37">
-        <v>2.894017344389723E-09</v>
+        <v>2.894017344389734E-09</v>
       </c>
       <c r="J37">
-        <v>2.229888840555618E-09</v>
+        <v>2.229888840555631E-09</v>
       </c>
       <c r="K37">
-        <v>0.0002016946667397846</v>
+        <v>0.0002016946667397836</v>
       </c>
       <c r="L37">
         <v>0.1319299943113948</v>
       </c>
       <c r="M37">
-        <v>914.6474799016054</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.1319295181682303</v>
+      </c>
+      <c r="N37">
+        <v>914.6474799016047</v>
+      </c>
+      <c r="O37">
+        <v>4.761431644220853E-07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>80.46275276476005</v>
+        <v>80.4627527647602</v>
       </c>
       <c r="B38">
-        <v>90600.26753677095</v>
+        <v>90600.26753677169</v>
       </c>
       <c r="C38">
-        <v>140.4080561508971</v>
+        <v>140.408056150898</v>
       </c>
       <c r="D38">
-        <v>28781.59705307198</v>
+        <v>28781.59705307195</v>
       </c>
       <c r="E38">
-        <v>5934.786495236873</v>
+        <v>5934.786495236861</v>
       </c>
       <c r="F38">
-        <v>5292.670323723768</v>
+        <v>5292.670323723754</v>
       </c>
       <c r="G38">
-        <v>8.274444541697898</v>
+        <v>8.274444541697841</v>
       </c>
       <c r="H38">
-        <v>27.90553837306412</v>
+        <v>27.90553837306413</v>
       </c>
       <c r="I38">
-        <v>2.971280801933715E-09</v>
+        <v>2.971280801933729E-09</v>
       </c>
       <c r="J38">
-        <v>2.333540450817973E-09</v>
+        <v>2.333540450817989E-09</v>
       </c>
       <c r="K38">
-        <v>0.0001942696747616705</v>
+        <v>0.0001942696747616695</v>
       </c>
       <c r="L38">
-        <v>0.1312189168175432</v>
+        <v>0.1312189168175431</v>
       </c>
       <c r="M38">
-        <v>904.8898348805534</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.131218421098269</v>
+      </c>
+      <c r="N38">
+        <v>904.8898348805525</v>
+      </c>
+      <c r="O38">
+        <v>4.957192741501543E-07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>81.4122934396911</v>
+        <v>81.41229343969125</v>
       </c>
       <c r="B39">
-        <v>100901.7299293397</v>
+        <v>100901.7299293407</v>
       </c>
       <c r="C39">
-        <v>155.0151624517354</v>
+        <v>155.0151624517368</v>
       </c>
       <c r="D39">
-        <v>28633.77713631167</v>
+        <v>28633.77713631164</v>
       </c>
       <c r="E39">
-        <v>5901.878437046719</v>
+        <v>5901.878437046713</v>
       </c>
       <c r="F39">
-        <v>5254.487079039111</v>
+        <v>5254.487079039103</v>
       </c>
       <c r="G39">
-        <v>8.10362315625979</v>
+        <v>8.103623156259795</v>
       </c>
       <c r="H39">
-        <v>27.57885856344637</v>
+        <v>27.57885856344638</v>
       </c>
       <c r="I39">
-        <v>3.052315552371268E-09</v>
+        <v>3.052315552371286E-09</v>
       </c>
       <c r="J39">
-        <v>2.441332922463656E-09</v>
+        <v>2.441332922463674E-09</v>
       </c>
       <c r="K39">
-        <v>0.0001873381082829499</v>
+        <v>0.0001873381082829487</v>
       </c>
       <c r="L39">
-        <v>0.1304285855813681</v>
+        <v>0.1304285855813679</v>
       </c>
       <c r="M39">
-        <v>895.1648494847225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.1304280696270741</v>
+      </c>
+      <c r="N39">
+        <v>895.1648494847203</v>
+      </c>
+      <c r="O39">
+        <v>5.159542938682178E-07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>82.36183411462216</v>
+        <v>82.3618341146223</v>
       </c>
       <c r="B40">
-        <v>112072.9734632093</v>
+        <v>112072.9734632114</v>
       </c>
       <c r="C40">
-        <v>170.7328913785279</v>
+        <v>170.7328913785309</v>
       </c>
       <c r="D40">
-        <v>28486.41199364668</v>
+        <v>28486.41199364666</v>
       </c>
       <c r="E40">
-        <v>5868.808010638613</v>
+        <v>5868.808010638604</v>
       </c>
       <c r="F40">
-        <v>5216.31940785464</v>
+        <v>5216.319407854633</v>
       </c>
       <c r="G40">
-        <v>7.950143247535399</v>
+        <v>7.950143247535425</v>
       </c>
       <c r="H40">
-        <v>27.30909776419383</v>
+        <v>27.30909776419381</v>
       </c>
       <c r="I40">
-        <v>3.137367700795622E-09</v>
+        <v>3.137367700795629E-09</v>
       </c>
       <c r="J40">
-        <v>2.553273760032202E-09</v>
+        <v>2.553273760032222E-09</v>
       </c>
       <c r="K40">
-        <v>0.000180848396356628</v>
+        <v>0.000180848396356627</v>
       </c>
       <c r="L40">
-        <v>0.1295537560847487</v>
+        <v>0.1295537560847486</v>
       </c>
       <c r="M40">
-        <v>885.474462915585</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.1295532192498805</v>
+      </c>
+      <c r="N40">
+        <v>885.4744629155841</v>
+      </c>
+      <c r="O40">
+        <v>5.368348680371315E-07</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>83.3113747895532</v>
+        <v>83.31137478955335</v>
       </c>
       <c r="B41">
-        <v>124160.5631083916</v>
+        <v>124160.5631083939</v>
       </c>
       <c r="C41">
-        <v>187.6153786696837</v>
+        <v>187.6153786696869</v>
       </c>
       <c r="D41">
-        <v>28339.35726985184</v>
+        <v>28339.35726985182</v>
       </c>
       <c r="E41">
-        <v>5835.508246266559</v>
+        <v>5835.508246266547</v>
       </c>
       <c r="F41">
-        <v>5178.107012137484</v>
+        <v>5178.107012137473</v>
       </c>
       <c r="G41">
-        <v>7.811825588992958</v>
+        <v>7.811825588992919</v>
       </c>
       <c r="H41">
-        <v>27.09229041113653</v>
+        <v>27.09229041113647</v>
       </c>
       <c r="I41">
-        <v>3.226702921493763E-09</v>
+        <v>3.226702921493773E-09</v>
       </c>
       <c r="J41">
-        <v>2.669362026736485E-09</v>
+        <v>2.669362026736503E-09</v>
       </c>
       <c r="K41">
-        <v>0.0001747553499958551</v>
+        <v>0.0001747553499958542</v>
       </c>
       <c r="L41">
-        <v>0.128590015365216</v>
+        <v>0.1285900153652159</v>
       </c>
       <c r="M41">
-        <v>875.8192867597375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.1285894570196683</v>
+      </c>
+      <c r="N41">
+        <v>875.8192867597365</v>
+      </c>
+      <c r="O41">
+        <v>5.583455475746597E-07</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>84.26091546448426</v>
+        <v>84.26091546448441</v>
       </c>
       <c r="B42">
-        <v>137211.8725100264</v>
+        <v>137211.8725100284</v>
       </c>
       <c r="C42">
-        <v>205.7181916616189</v>
+        <v>205.7181916616218</v>
       </c>
       <c r="D42">
-        <v>28192.47346158695</v>
+        <v>28192.47346158692</v>
       </c>
       <c r="E42">
-        <v>5801.915913190792</v>
+        <v>5801.915913190783</v>
       </c>
       <c r="F42">
-        <v>5139.793387672767</v>
+        <v>5139.793387672756</v>
       </c>
       <c r="G42">
-        <v>7.686737479814549</v>
+        <v>7.68673747981451</v>
       </c>
       <c r="H42">
-        <v>26.92492090255415</v>
+        <v>26.92492090255413</v>
       </c>
       <c r="I42">
-        <v>3.320608423388354E-09</v>
+        <v>3.320608423388372E-09</v>
       </c>
       <c r="J42">
-        <v>2.789589476974985E-09</v>
+        <v>2.789589476975004E-09</v>
       </c>
       <c r="K42">
-        <v>0.0001690192948029795</v>
+        <v>0.0001690192948029785</v>
       </c>
       <c r="L42">
-        <v>0.1275340685857697</v>
+        <v>0.1275340685857695</v>
       </c>
       <c r="M42">
-        <v>866.1987759952106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.1275334881167318</v>
+      </c>
+      <c r="N42">
+        <v>866.1987759952093</v>
+      </c>
+      <c r="O42">
+        <v>5.804690376272224E-07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>85.21045613941531</v>
+        <v>85.21045613941546</v>
       </c>
       <c r="B43">
-        <v>151275.0376135576</v>
+        <v>151275.0376135603</v>
       </c>
       <c r="C43">
-        <v>225.0984055328922</v>
+        <v>225.0984055328959</v>
       </c>
       <c r="D43">
-        <v>28045.62536241757</v>
+        <v>28045.62536241754</v>
       </c>
       <c r="E43">
-        <v>5767.971102868014</v>
+        <v>5767.971102868004</v>
       </c>
       <c r="F43">
-        <v>5101.325414890964</v>
+        <v>5101.325414890955</v>
       </c>
       <c r="G43">
-        <v>7.573168897552219</v>
+        <v>7.573168897552222</v>
       </c>
       <c r="H43">
         <v>26.80388499589482</v>
       </c>
       <c r="I43">
-        <v>3.419395129817355E-09</v>
+        <v>3.419395129817367E-09</v>
       </c>
       <c r="J43">
-        <v>2.913941858809765E-09</v>
+        <v>2.913941858809785E-09</v>
       </c>
       <c r="K43">
-        <v>0.0001636053136842423</v>
+        <v>0.0001636053136842415</v>
       </c>
       <c r="L43">
-        <v>0.1263840394797084</v>
+        <v>0.1263840394797082</v>
       </c>
       <c r="M43">
-        <v>856.6113967923098</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.1263834362932352</v>
+      </c>
+      <c r="N43">
+        <v>856.6113967923087</v>
+      </c>
+      <c r="O43">
+        <v>6.031864729238124E-07</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>86.15999681434636</v>
+        <v>86.15999681434651</v>
       </c>
       <c r="B44">
-        <v>166398.9113354946</v>
+        <v>166398.9113354975</v>
       </c>
       <c r="C44">
-        <v>245.8146908935724</v>
+        <v>245.8146908935765</v>
       </c>
       <c r="D44">
-        <v>27898.6815364677</v>
+        <v>27898.68153646768</v>
       </c>
       <c r="E44">
-        <v>5733.61684244907</v>
+        <v>5733.616842449074</v>
       </c>
       <c r="F44">
-        <v>5062.65298158367</v>
+        <v>5062.652981583675</v>
       </c>
       <c r="G44">
-        <v>7.469610194949517</v>
+        <v>7.469610194949498</v>
       </c>
       <c r="H44">
-        <v>26.72645462001133</v>
+        <v>26.72645462001132</v>
       </c>
       <c r="I44">
-        <v>3.52340010123289E-09</v>
+        <v>3.523400101232903E-09</v>
       </c>
       <c r="J44">
-        <v>3.042400361551746E-09</v>
+        <v>3.042400361551766E-09</v>
       </c>
       <c r="K44">
-        <v>0.000158482595590613</v>
+        <v>0.0001584825955906124</v>
       </c>
       <c r="L44">
-        <v>0.1251397737834029</v>
+        <v>0.1251397737834027</v>
       </c>
       <c r="M44">
-        <v>847.0547861725361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.1251391473056884</v>
+      </c>
+      <c r="N44">
+        <v>847.0547861725349</v>
+      </c>
+      <c r="O44">
+        <v>6.264777143448809E-07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>87.10953748927741</v>
+        <v>87.10953748927757</v>
       </c>
       <c r="B45">
-        <v>182633.0194938308</v>
+        <v>182633.0194938332</v>
       </c>
       <c r="C45">
-        <v>267.9274137026189</v>
+        <v>267.9274137026221</v>
       </c>
       <c r="D45">
-        <v>27751.51381743714</v>
+        <v>27751.51381743712</v>
       </c>
       <c r="E45">
-        <v>5698.798735308299</v>
+        <v>5698.798735308294</v>
       </c>
       <c r="F45">
-        <v>5023.728634342515</v>
+        <v>5023.728634342511</v>
       </c>
       <c r="G45">
-        <v>7.374731427659146</v>
+        <v>7.374731427659154</v>
       </c>
       <c r="H45">
-        <v>26.69024602198297</v>
+        <v>26.69024602198296</v>
       </c>
       <c r="I45">
-        <v>3.63298923350045E-09</v>
+        <v>3.632989233500457E-09</v>
       </c>
       <c r="J45">
-        <v>3.174943181856437E-09</v>
+        <v>3.174943181856453E-09</v>
       </c>
       <c r="K45">
-        <v>0.0001536238810154622</v>
+        <v>0.0001536238810154617</v>
       </c>
       <c r="L45">
-        <v>0.123803123032839</v>
+        <v>0.1238031230328389</v>
       </c>
       <c r="M45">
-        <v>837.5259003362136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.1238024727111788</v>
+      </c>
+      <c r="N45">
+        <v>837.5259003362128</v>
+      </c>
+      <c r="O45">
+        <v>6.503216601118423E-07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>88.05907816420847</v>
+        <v>88.05907816420861</v>
       </c>
       <c r="B46">
-        <v>200027.5182063573</v>
+        <v>200027.5182063595</v>
       </c>
       <c r="C46">
-        <v>291.4987486731654</v>
+        <v>291.4987486731682</v>
       </c>
       <c r="D46">
-        <v>27603.99682997802</v>
+        <v>27603.996829978</v>
       </c>
       <c r="E46">
-        <v>5663.464625361465</v>
+        <v>5663.464625361461</v>
       </c>
       <c r="F46">
-        <v>4984.50725560815</v>
+        <v>4984.507255608146</v>
       </c>
       <c r="G46">
-        <v>7.287363339476991</v>
+        <v>7.287363339477005</v>
       </c>
       <c r="H46">
-        <v>26.69319113077835</v>
+        <v>26.69319113077838</v>
       </c>
       <c r="I46">
-        <v>3.748560269256801E-09</v>
+        <v>3.748560269256817E-09</v>
       </c>
       <c r="J46">
-        <v>3.311547181229572E-09</v>
+        <v>3.311547181229589E-09</v>
       </c>
       <c r="K46">
-        <v>0.0001490049926769736</v>
+        <v>0.000149004992676973</v>
       </c>
       <c r="L46">
-        <v>0.1223781719407808</v>
+        <v>0.1223781719407806</v>
       </c>
       <c r="M46">
-        <v>828.0211498308809</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.1223774972442156</v>
+      </c>
+      <c r="N46">
+        <v>828.0211498308796</v>
+      </c>
+      <c r="O46">
+        <v>6.746965650486871E-07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>89.00861883913952</v>
+        <v>89.00861883913967</v>
       </c>
       <c r="B47">
-        <v>218633.1529632068</v>
+        <v>218633.1529632092</v>
       </c>
       <c r="C47">
-        <v>316.5928075367229</v>
+        <v>316.5928075367261</v>
       </c>
       <c r="D47">
-        <v>27456.00753065771</v>
+        <v>27456.00753065769</v>
       </c>
       <c r="E47">
-        <v>5627.564281981808</v>
+        <v>5627.564281981784</v>
       </c>
       <c r="F47">
-        <v>4944.945763289036</v>
+        <v>4944.945763289015</v>
       </c>
       <c r="G47">
-        <v>7.206479987453455</v>
+        <v>7.206479987453474</v>
       </c>
       <c r="H47">
-        <v>26.73351199698989</v>
+        <v>26.73351199698988</v>
       </c>
       <c r="I47">
-        <v>3.870546165363697E-09</v>
+        <v>3.870546165363707E-09</v>
       </c>
       <c r="J47">
-        <v>3.452189608490969E-09</v>
+        <v>3.452189608490991E-09</v>
       </c>
       <c r="K47">
-        <v>0.0001446044393228451</v>
+        <v>0.0001446044393228446</v>
       </c>
       <c r="L47">
-        <v>0.1208713604316618</v>
+        <v>0.1208713604316616</v>
       </c>
       <c r="M47">
-        <v>818.5365207585272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.1208706608512999</v>
+      </c>
+      <c r="N47">
+        <v>818.5365207585261</v>
+      </c>
+      <c r="O47">
+        <v>6.995803616506298E-07</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>89.95815951407056</v>
+        <v>89.95815951407074</v>
       </c>
       <c r="B48">
-        <v>238501.2195827739</v>
+        <v>238501.219582776</v>
       </c>
       <c r="C48">
-        <v>343.2757837877463</v>
+        <v>343.2757837877487</v>
       </c>
       <c r="D48">
-        <v>27307.4247659403</v>
+        <v>27307.42476594027</v>
       </c>
       <c r="E48">
-        <v>5591.049102384747</v>
+        <v>5591.049102384741</v>
       </c>
       <c r="F48">
-        <v>4905.002829990985</v>
+        <v>4905.002829990977</v>
       </c>
       <c r="G48">
-        <v>7.13118295750693</v>
+        <v>7.131182957506899</v>
       </c>
       <c r="H48">
-        <v>26.80969815568517</v>
+        <v>26.80969815568518</v>
       </c>
       <c r="I48">
-        <v>3.999418866027998E-09</v>
+        <v>3.999418866028021E-09</v>
       </c>
       <c r="J48">
-        <v>3.596849862407331E-09</v>
+        <v>3.596849862407358E-09</v>
       </c>
       <c r="K48">
-        <v>0.0001404030811597409</v>
+        <v>0.0001404030811597401</v>
       </c>
       <c r="L48">
-        <v>0.1192914475903911</v>
+        <v>0.1192914475903908</v>
       </c>
       <c r="M48">
-        <v>809.0676819644843</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.1192907226394136</v>
+      </c>
+      <c r="N48">
+        <v>809.0676819644831</v>
+      </c>
+      <c r="O48">
+        <v>7.249509771667257E-07</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>90.90770018900162</v>
+        <v>90.90770018900179</v>
       </c>
       <c r="B49">
-        <v>259683.5272675328</v>
+        <v>259683.5272675356</v>
       </c>
       <c r="C49">
-        <v>371.6161158244007</v>
+        <v>371.6161158244041</v>
       </c>
       <c r="D49">
-        <v>27158.12884480086</v>
+        <v>27158.12884480083</v>
       </c>
       <c r="E49">
-        <v>5553.871828414826</v>
+        <v>5553.871828414817</v>
       </c>
       <c r="F49">
-        <v>4864.638618981524</v>
+        <v>4864.638618981515</v>
       </c>
       <c r="G49">
-        <v>7.060687099259371</v>
+        <v>7.060687099259361</v>
       </c>
       <c r="H49">
-        <v>26.9204867557688</v>
+        <v>26.92048675576884</v>
       </c>
       <c r="I49">
-        <v>4.135693538831287E-09</v>
+        <v>4.135693538831313E-09</v>
       </c>
       <c r="J49">
-        <v>3.745511272200166E-09</v>
+        <v>3.745511272200197E-09</v>
       </c>
       <c r="K49">
-        <v>0.0001363838465254711</v>
+        <v>0.0001363838465254704</v>
       </c>
       <c r="L49">
-        <v>0.1176492752796092</v>
+        <v>0.1176492752796088</v>
       </c>
       <c r="M49">
-        <v>799.610078667445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.1176485244929673</v>
+      </c>
+      <c r="N49">
+        <v>799.6100786674433</v>
+      </c>
+      <c r="O49">
+        <v>7.507866415381798E-07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>91.85724086393266</v>
+        <v>91.85724086393284</v>
       </c>
       <c r="B50">
-        <v>282232.3639892369</v>
+        <v>282232.3639892414</v>
       </c>
       <c r="C50">
-        <v>401.6846707469747</v>
+        <v>401.6846707469807</v>
       </c>
       <c r="D50">
-        <v>27008.00112374817</v>
+        <v>27008.00112374813</v>
       </c>
       <c r="E50">
-        <v>5515.986274726013</v>
+        <v>5515.98627472602</v>
       </c>
       <c r="F50">
-        <v>4823.814534090516</v>
+        <v>4823.814534090519</v>
       </c>
       <c r="G50">
-        <v>6.994307694547365</v>
+        <v>6.994307694547361</v>
       </c>
       <c r="H50">
-        <v>27.06484530228449</v>
+        <v>27.06484530228452</v>
       </c>
       <c r="I50">
-        <v>4.279933339945866E-09</v>
+        <v>4.279933339945902E-09</v>
       </c>
       <c r="J50">
-        <v>3.898162876758793E-09</v>
+        <v>3.898162876758826E-09</v>
       </c>
       <c r="K50">
-        <v>0.0001325314907651958</v>
+        <v>0.000132531490765195</v>
       </c>
       <c r="L50">
-        <v>0.1159573164299316</v>
+        <v>0.1159573164299313</v>
       </c>
       <c r="M50">
-        <v>790.1590133271715</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.1159565393637495</v>
+      </c>
+      <c r="N50">
+        <v>790.159013327169</v>
+      </c>
+      <c r="O50">
+        <v>7.770661817560519E-07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>92.8067815388637</v>
+        <v>92.8067815388639</v>
       </c>
       <c r="B51">
-        <v>306200.4644511379</v>
+        <v>306200.4644511429</v>
       </c>
       <c r="C51">
-        <v>433.5549514782149</v>
+        <v>433.5549514782215</v>
       </c>
       <c r="D51">
-        <v>26856.92360217283</v>
+        <v>26856.9236021728</v>
       </c>
       <c r="E51">
-        <v>5477.3470653967</v>
+        <v>5477.347065396686</v>
       </c>
       <c r="F51">
-        <v>4782.492980817256</v>
+        <v>4782.492980817242</v>
       </c>
       <c r="G51">
-        <v>6.931448965673775</v>
+        <v>6.931448965673772</v>
       </c>
       <c r="H51">
-        <v>27.24195686644073</v>
+        <v>27.24195686644085</v>
       </c>
       <c r="I51">
-        <v>4.432754785486047E-09</v>
+        <v>4.432754785486082E-09</v>
       </c>
       <c r="J51">
-        <v>4.05480118693442E-09</v>
+        <v>4.054801186934447E-09</v>
       </c>
       <c r="K51">
-        <v>0.0001288323896476009</v>
+        <v>0.0001288323896476002</v>
       </c>
       <c r="L51">
-        <v>0.1142290330413851</v>
+        <v>0.1142290330413848</v>
       </c>
       <c r="M51">
-        <v>780.7097147459606</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.1142282292720858</v>
+      </c>
+      <c r="N51">
+        <v>780.7097147459589</v>
+      </c>
+      <c r="O51">
+        <v>8.037692989883994E-07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>93.75632221379476</v>
+        <v>93.75632221379495</v>
       </c>
       <c r="B52">
-        <v>331640.9808993785</v>
+        <v>331640.9808993842</v>
       </c>
       <c r="C52">
-        <v>467.3033303394574</v>
+        <v>467.303330339465</v>
       </c>
       <c r="D52">
-        <v>26704.7785260638</v>
+        <v>26704.77852606378</v>
       </c>
       <c r="E52">
-        <v>5437.909376057285</v>
+        <v>5437.909376057278</v>
       </c>
       <c r="F52">
-        <v>4740.637135968492</v>
+        <v>4740.637135968486</v>
       </c>
       <c r="G52">
-        <v>6.871593825553567</v>
+        <v>6.871593825553581</v>
       </c>
       <c r="H52">
-        <v>27.45120763077822</v>
+        <v>27.45120763077826</v>
       </c>
       <c r="I52">
-        <v>4.594833818587966E-09</v>
+        <v>4.594833818587995E-09</v>
       </c>
       <c r="J52">
-        <v>4.215431919059222E-09</v>
+        <v>4.21543191905925E-09</v>
       </c>
       <c r="K52">
-        <v>0.0001252743609519714</v>
+        <v>0.0001252743609519708</v>
       </c>
       <c r="L52">
-        <v>0.1124781111048349</v>
+        <v>0.1124781111048346</v>
       </c>
       <c r="M52">
-        <v>771.2573964970055</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.112477280228009</v>
+      </c>
+      <c r="N52">
+        <v>771.2573964970035</v>
+      </c>
+      <c r="O52">
+        <v>8.308768256235109E-07</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>94.7058628887258</v>
+        <v>94.70586288872602</v>
       </c>
       <c r="B53">
-        <v>358607.4570860316</v>
+        <v>358607.4570860384</v>
       </c>
       <c r="C53">
-        <v>503.0093127608584</v>
+        <v>503.0093127608675</v>
       </c>
       <c r="D53">
-        <v>26551.44799824518</v>
+        <v>26551.44799824515</v>
       </c>
       <c r="E53">
-        <v>5397.62867863339</v>
+        <v>5397.628678633368</v>
       </c>
       <c r="F53">
-        <v>4698.210723192428</v>
+        <v>4698.210723192406</v>
       </c>
       <c r="G53">
-        <v>6.814294771321355</v>
+        <v>6.814294771321309</v>
       </c>
       <c r="H53">
-        <v>27.69217665309625</v>
+        <v>27.69217665309627</v>
       </c>
       <c r="I53">
-        <v>4.766912676845043E-09</v>
+        <v>4.766912676845076E-09</v>
       </c>
       <c r="J53">
-        <v>4.380071691650319E-09</v>
+        <v>4.380071691650351E-09</v>
       </c>
       <c r="K53">
-        <v>0.0001218465090167494</v>
+        <v>0.0001218465090167487</v>
       </c>
       <c r="L53">
-        <v>0.110717670094732</v>
+        <v>0.1107176700947317</v>
       </c>
       <c r="M53">
-        <v>761.7973057960714</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.1107168117237715</v>
+      </c>
+      <c r="N53">
+        <v>761.79730579607</v>
+      </c>
+      <c r="O53">
+        <v>8.583709601516914E-07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>95.65540356365686</v>
+        <v>95.65540356365707</v>
       </c>
       <c r="B54">
-        <v>387153.8057235176</v>
+        <v>387153.8057235191</v>
       </c>
       <c r="C54">
-        <v>540.7558354354759</v>
+        <v>540.7558354354767</v>
       </c>
       <c r="D54">
-        <v>26396.81359338057</v>
+        <v>26396.81359338054</v>
       </c>
       <c r="E54">
-        <v>5356.460485814446</v>
+        <v>5356.460485814438</v>
       </c>
       <c r="F54">
-        <v>4655.177791794327</v>
+        <v>4655.17779179432</v>
       </c>
       <c r="G54">
-        <v>6.759165824846597</v>
+        <v>6.759165824846563</v>
       </c>
       <c r="H54">
-        <v>27.96462775212631</v>
+        <v>27.96462775212635</v>
       </c>
       <c r="I54">
-        <v>4.949807682663009E-09</v>
+        <v>4.949807682663042E-09</v>
       </c>
       <c r="J54">
-        <v>4.54874968097592E-09</v>
+        <v>4.548749680975953E-09</v>
       </c>
       <c r="K54">
-        <v>0.0001185390880437509</v>
+        <v>0.0001185390880437502</v>
       </c>
       <c r="L54">
-        <v>0.1089595523600138</v>
+        <v>0.1089595523600135</v>
       </c>
       <c r="M54">
-        <v>752.3247639047087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.108958666124535</v>
+      </c>
+      <c r="N54">
+        <v>752.3247639047074</v>
+      </c>
+      <c r="O54">
+        <v>8.862354784972505E-07</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>96.60494423858792</v>
+        <v>96.60494423858812</v>
       </c>
       <c r="B55">
-        <v>417334.2898138923</v>
+        <v>417334.2898138984</v>
       </c>
       <c r="C55">
-        <v>580.6296039569007</v>
+        <v>580.6296039569087</v>
       </c>
       <c r="D55">
-        <v>26240.75597607249</v>
+        <v>26240.75597607246</v>
       </c>
       <c r="E55">
-        <v>5314.360092350973</v>
+        <v>5314.360092350963</v>
       </c>
       <c r="F55">
-        <v>4611.502496223429</v>
+        <v>4611.502496223421</v>
       </c>
       <c r="G55">
-        <v>6.705875427203966</v>
+        <v>6.705875427203931</v>
       </c>
       <c r="H55">
-        <v>28.26850344028696</v>
+        <v>28.26850344028701</v>
       </c>
       <c r="I55">
-        <v>5.144418100582269E-09</v>
+        <v>5.144418100582309E-09</v>
       </c>
       <c r="J55">
-        <v>4.721509234670725E-09</v>
+        <v>4.721509234670764E-09</v>
       </c>
       <c r="K55">
-        <v>0.0001153433807994721</v>
+        <v>0.0001153433807994714</v>
       </c>
       <c r="L55">
-        <v>0.107213779762201</v>
+        <v>0.1072137797622005</v>
       </c>
       <c r="M55">
-        <v>742.8351990908164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.1072128653062795</v>
+      </c>
+      <c r="N55">
+        <v>742.8351990908149</v>
+      </c>
+      <c r="O55">
+        <v>9.144559210786386E-07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>97.55448491351896</v>
+        <v>97.55448491351918</v>
       </c>
       <c r="B56">
-        <v>449203.5082875225</v>
+        <v>449203.50828753</v>
       </c>
       <c r="C56">
-        <v>622.721475823946</v>
+        <v>622.7214758239559</v>
       </c>
       <c r="D56">
-        <v>26083.15452044969</v>
+        <v>26083.15452044964</v>
       </c>
       <c r="E56">
-        <v>5271.282310257026</v>
+        <v>5271.282310257018</v>
       </c>
       <c r="F56">
-        <v>4567.148873601773</v>
+        <v>4567.148873601763</v>
       </c>
       <c r="G56">
-        <v>6.654140198950881</v>
+        <v>6.654140198950883</v>
       </c>
       <c r="H56">
-        <v>28.60392085432612</v>
+        <v>28.60392085432625</v>
       </c>
       <c r="I56">
-        <v>5.351736231449129E-09</v>
+        <v>5.35173623144919E-09</v>
       </c>
       <c r="J56">
-        <v>4.898409445814579E-09</v>
+        <v>4.898409445814623E-09</v>
       </c>
       <c r="K56">
-        <v>0.0001122515900569079</v>
+        <v>0.0001122515900569071</v>
       </c>
       <c r="L56">
-        <v>0.1054882278752054</v>
+        <v>0.105488227875205</v>
       </c>
       <c r="M56">
-        <v>733.3241730886722</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.1054872848554496</v>
+      </c>
+      <c r="N56">
+        <v>733.3241730886693</v>
+      </c>
+      <c r="O56">
+        <v>9.430197553870621E-07</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>98.50402558845002</v>
+        <v>98.50402558845023</v>
       </c>
       <c r="B57">
-        <v>482816.3864435435</v>
+        <v>482816.3864435465</v>
       </c>
       <c r="C57">
-        <v>667.1268956696197</v>
+        <v>667.1268956696226</v>
       </c>
       <c r="D57">
-        <v>25923.88692968476</v>
+        <v>25923.88692968471</v>
       </c>
       <c r="E57">
         <v>5227.181194950896</v>
       </c>
       <c r="F57">
-        <v>4522.08061662588</v>
+        <v>4522.080616625878</v>
       </c>
       <c r="G57">
-        <v>6.603719483626191</v>
+        <v>6.603719483626128</v>
       </c>
       <c r="H57">
-        <v>28.97116966358734</v>
+        <v>28.97116966358742</v>
       </c>
       <c r="I57">
-        <v>5.572858944513015E-09</v>
+        <v>5.57285894451308E-09</v>
       </c>
       <c r="J57">
-        <v>5.079526692792102E-09</v>
+        <v>5.079526692792145E-09</v>
       </c>
       <c r="K57">
-        <v>0.0001092567406944021</v>
+        <v>0.0001092567406944014</v>
       </c>
       <c r="L57">
-        <v>0.103788524614914</v>
+        <v>0.1037885246149135</v>
       </c>
       <c r="M57">
-        <v>723.7874019048838</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.1037875526983992</v>
+      </c>
+      <c r="N57">
+        <v>723.7874019048817</v>
+      </c>
+      <c r="O57">
+        <v>9.719165143275861E-07</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>99.45356626338108</v>
+        <v>99.45356626338128</v>
       </c>
       <c r="B58">
-        <v>518228.1717503881</v>
+        <v>518228.171750395</v>
       </c>
       <c r="C58">
-        <v>713.9463906966602</v>
+        <v>713.9463906966689</v>
       </c>
       <c r="D58">
-        <v>25762.82885391406</v>
+        <v>25762.82885391402</v>
       </c>
       <c r="E58">
-        <v>5182.009759303229</v>
+        <v>5182.009759303234</v>
       </c>
       <c r="F58">
-        <v>4476.260839107757</v>
+        <v>4476.260839107759</v>
       </c>
       <c r="G58">
-        <v>6.554410597887462</v>
+        <v>6.554410597887412</v>
       </c>
       <c r="H58">
-        <v>29.3707119687216</v>
+        <v>29.37071196872167</v>
       </c>
       <c r="I58">
-        <v>5.809000886370181E-09</v>
+        <v>5.809000886370242E-09</v>
       </c>
       <c r="J58">
-        <v>5.264956152825338E-09</v>
+        <v>5.26495615282538E-09</v>
       </c>
       <c r="K58">
-        <v>0.0001063525908302173</v>
+        <v>0.0001063525908302166</v>
       </c>
       <c r="L58">
-        <v>0.1021181430967246</v>
+        <v>0.1021181430967242</v>
       </c>
       <c r="M58">
-        <v>714.22077171555</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.1021171419588133</v>
+      </c>
+      <c r="N58">
+        <v>714.2207717155479</v>
+      </c>
+      <c r="O58">
+        <v>1.00113791091248E-06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>100.4031069383121</v>
+        <v>100.4031069383123</v>
       </c>
       <c r="B59">
-        <v>555494.4356368897</v>
+        <v>555494.4356368948</v>
       </c>
       <c r="C59">
-        <v>763.2861355987799</v>
+        <v>763.2861355987857</v>
       </c>
       <c r="D59">
-        <v>25599.85350503858</v>
+        <v>25599.85350503855</v>
       </c>
       <c r="E59">
-        <v>5135.719672477297</v>
+        <v>5135.719672477288</v>
       </c>
       <c r="F59">
-        <v>4429.651831331242</v>
+        <v>4429.651831331231</v>
       </c>
       <c r="G59">
-        <v>6.506044717886312</v>
+        <v>6.506044717886352</v>
       </c>
       <c r="H59">
-        <v>29.80318424186939</v>
+        <v>29.80318424186956</v>
       </c>
       <c r="I59">
-        <v>6.0615096517944E-09</v>
+        <v>6.061509651794457E-09</v>
       </c>
       <c r="J59">
-        <v>5.454813299330886E-09</v>
+        <v>5.454813299330925E-09</v>
       </c>
       <c r="K59">
-        <v>0.0001035335507403677</v>
+        <v>0.000103533550740367</v>
       </c>
       <c r="L59">
-        <v>0.1004786358728799</v>
+        <v>0.1004786358728796</v>
       </c>
       <c r="M59">
-        <v>704.6203504979385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.1004776051949495</v>
+      </c>
+      <c r="N59">
+        <v>704.6203504979361</v>
+      </c>
+      <c r="O59">
+        <v>1.030677930119039E-06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>101.3526476132432</v>
+        <v>101.3526476132434</v>
       </c>
       <c r="B60">
-        <v>594671.0819849295</v>
+        <v>594671.0819849388</v>
       </c>
       <c r="C60">
-        <v>815.2585977458639</v>
+        <v>815.258597745876</v>
       </c>
       <c r="D60">
-        <v>25434.83126686133</v>
+        <v>25434.83126686129</v>
       </c>
       <c r="E60">
-        <v>5088.260940336919</v>
+        <v>5088.260940336913</v>
       </c>
       <c r="F60">
-        <v>4382.214802279031</v>
+        <v>4382.21480227903</v>
       </c>
       <c r="G60">
-        <v>6.45848333768333</v>
+        <v>6.458483337683292</v>
       </c>
       <c r="H60">
         <v>30.26940140408166</v>
       </c>
       <c r="I60">
-        <v>6.331883257985512E-09</v>
+        <v>6.33188325798555E-09</v>
       </c>
       <c r="J60">
-        <v>5.649235395240378E-09</v>
+        <v>5.649235395240421E-09</v>
       </c>
       <c r="K60">
-        <v>0.0001007946085988075</v>
+        <v>0.0001007946085988069</v>
       </c>
       <c r="L60">
-        <v>0.09886995111207492</v>
+        <v>0.09886995111207458</v>
       </c>
       <c r="M60">
-        <v>694.9823959397365</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.09886889057917568</v>
+      </c>
+      <c r="N60">
+        <v>694.9823959397354</v>
+      </c>
+      <c r="O60">
+        <v>1.060532898902836E-06</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>102.3021882881742</v>
+        <v>102.3021882881744</v>
       </c>
       <c r="B61">
-        <v>635814.3631213629</v>
+        <v>635814.3631213799</v>
       </c>
       <c r="C61">
-        <v>869.983275141838</v>
+        <v>869.9832751418628</v>
       </c>
       <c r="D61">
-        <v>25267.6292989539</v>
+        <v>25267.62929895385</v>
       </c>
       <c r="E61">
-        <v>5039.581564064779</v>
+        <v>5039.581564064763</v>
       </c>
       <c r="F61">
-        <v>4333.909605633537</v>
+        <v>4333.909605633524</v>
       </c>
       <c r="G61">
-        <v>6.411615241553707</v>
+        <v>6.411615241553688</v>
       </c>
       <c r="H61">
-        <v>30.77036318886984</v>
+        <v>30.77036318886993</v>
       </c>
       <c r="I61">
-        <v>6.621790333321092E-09</v>
+        <v>6.621790333321163E-09</v>
       </c>
       <c r="J61">
-        <v>5.848382996196456E-09</v>
+        <v>5.848382996196505E-09</v>
       </c>
       <c r="K61">
-        <v>9.813126230733923E-05</v>
+        <v>9.813126230733862E-05</v>
       </c>
       <c r="L61">
-        <v>0.09729077737448931</v>
+        <v>0.09729077737448891</v>
       </c>
       <c r="M61">
-        <v>685.3033600723378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.09728968667295348</v>
+      </c>
+      <c r="N61">
+        <v>685.3033600723355</v>
+      </c>
+      <c r="O61">
+        <v>1.090701535417451E-06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>103.2517289631053</v>
+        <v>103.2517289631055</v>
       </c>
       <c r="B62">
-        <v>678980.9042007623</v>
+        <v>678980.904200773</v>
       </c>
       <c r="C62">
-        <v>927.5875416649218</v>
+        <v>927.587541664936</v>
       </c>
       <c r="D62">
-        <v>25098.11113253095</v>
+        <v>25098.11113253091</v>
       </c>
       <c r="E62">
-        <v>4989.627173469289</v>
+        <v>4989.627173469284</v>
       </c>
       <c r="F62">
-        <v>4284.694446262626</v>
+        <v>4284.69444626262</v>
       </c>
       <c r="G62">
-        <v>6.365353937876732</v>
+        <v>6.365353937876719</v>
       </c>
       <c r="H62">
-        <v>31.30726300479358</v>
+        <v>31.3072630047937</v>
       </c>
       <c r="I62">
-        <v>6.933093517803879E-09</v>
+        <v>6.933093517803948E-09</v>
       </c>
       <c r="J62">
-        <v>6.052441479167811E-09</v>
+        <v>6.052441479167862E-09</v>
       </c>
       <c r="K62">
-        <v>9.553945685955848E-05</v>
+        <v>9.553945685955787E-05</v>
       </c>
       <c r="L62">
-        <v>0.0957388768341968</v>
+        <v>0.09573887683419642</v>
       </c>
       <c r="M62">
-        <v>675.5798909823418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.09573775564921794</v>
+      </c>
+      <c r="N62">
+        <v>675.5798909823399</v>
+      </c>
+      <c r="O62">
+        <v>1.12118497848278E-06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>104.2012696380363</v>
+        <v>104.2012696380366</v>
       </c>
       <c r="B63">
-        <v>724227.7369695383</v>
+        <v>724227.7369695472</v>
       </c>
       <c r="C63">
-        <v>988.2076164127263</v>
+        <v>988.2076164127377</v>
       </c>
       <c r="D63">
-        <v>24926.13625642683</v>
+        <v>24926.13625642678</v>
       </c>
       <c r="E63">
-        <v>4938.340631264142</v>
+        <v>4938.340631264136</v>
       </c>
       <c r="F63">
-        <v>4234.525563667875</v>
+        <v>4234.525563667868</v>
       </c>
       <c r="G63">
-        <v>6.319635507833731</v>
+        <v>6.319635507833718</v>
       </c>
       <c r="H63">
-        <v>31.88149958813637</v>
+        <v>31.88149958813655</v>
       </c>
       <c r="I63">
-        <v>7.267876679608393E-09</v>
+        <v>7.267876679608509E-09</v>
       </c>
       <c r="J63">
-        <v>6.261622613604961E-09</v>
+        <v>6.261622613605013E-09</v>
       </c>
       <c r="K63">
-        <v>9.301552681873416E-05</v>
+        <v>9.301552681873343E-05</v>
       </c>
       <c r="L63">
-        <v>0.09421138185338383</v>
+        <v>0.0942113818533834</v>
       </c>
       <c r="M63">
-        <v>665.8088318680088</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.09421022986658507</v>
+      </c>
+      <c r="N63">
+        <v>665.8088318680053</v>
+      </c>
+      <c r="O63">
+        <v>1.151986798331828E-06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>105.1508103129674</v>
+        <v>105.1508103129676</v>
       </c>
       <c r="B64">
-        <v>771612.3440061701</v>
+        <v>771612.3440061799</v>
       </c>
       <c r="C64">
-        <v>1051.989676649935</v>
+        <v>1051.989676649947</v>
       </c>
       <c r="D64">
-        <v>24751.55969099163</v>
+        <v>24751.55969099158</v>
       </c>
       <c r="E64">
-        <v>4885.661604374204</v>
+        <v>4885.661604374196</v>
       </c>
       <c r="F64">
-        <v>4183.356888588902</v>
+        <v>4183.356888588893</v>
       </c>
       <c r="G64">
-        <v>6.274416827342555</v>
+        <v>6.274416827342542</v>
       </c>
       <c r="H64">
-        <v>32.49469183327432</v>
+        <v>32.49469183327463</v>
       </c>
       <c r="I64">
-        <v>7.628476686412799E-09</v>
+        <v>7.628476686412932E-09</v>
       </c>
       <c r="J64">
-        <v>6.47616619388225E-09</v>
+        <v>6.47616619388231E-09</v>
       </c>
       <c r="K64">
-        <v>9.055614359196199E-05</v>
+        <v>9.055614359196126E-05</v>
       </c>
       <c r="L64">
-        <v>0.09270504313494116</v>
+        <v>0.09270504313494067</v>
       </c>
       <c r="M64">
-        <v>655.9872176246532</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.09270386002195115</v>
+      </c>
+      <c r="N64">
+        <v>655.98721762465</v>
+      </c>
+      <c r="O64">
+        <v>1.183112989518107E-06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>106.1003509878984</v>
+        <v>106.1003509878987</v>
       </c>
       <c r="B65">
-        <v>821192.7146382405</v>
+        <v>821192.714638252</v>
       </c>
       <c r="C65">
-        <v>1119.09113694567</v>
+        <v>1119.091136945685</v>
       </c>
       <c r="D65">
-        <v>24574.23154732183</v>
+        <v>24574.23154732179</v>
       </c>
       <c r="E65">
-        <v>4831.526098056566</v>
+        <v>4831.526098056561</v>
       </c>
       <c r="F65">
-        <v>4131.139668618424</v>
+        <v>4131.139668618422</v>
       </c>
       <c r="G65">
-        <v>6.229674125486445</v>
+        <v>6.229674125486432</v>
       </c>
       <c r="H65">
-        <v>33.14869730886964</v>
+        <v>33.14869730886976</v>
       </c>
       <c r="I65">
-        <v>8.017520639430052E-09</v>
+        <v>8.017520639430137E-09</v>
       </c>
       <c r="J65">
-        <v>6.696341753558328E-09</v>
+        <v>6.696341753558377E-09</v>
       </c>
       <c r="K65">
-        <v>8.815826725890506E-05</v>
+        <v>8.815826725890449E-05</v>
       </c>
       <c r="L65">
-        <v>0.09121642757912118</v>
+        <v>0.09121642757912087</v>
       </c>
       <c r="M65">
-        <v>646.1122690650693</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.0912152130071741</v>
+      </c>
+      <c r="N65">
+        <v>646.1122690650672</v>
+      </c>
+      <c r="O65">
+        <v>1.214571946769774E-06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>107.0498916628295</v>
+        <v>107.0498916628297</v>
       </c>
       <c r="B66">
-        <v>873027.4138426278</v>
+        <v>873027.4138426383</v>
       </c>
       <c r="C66">
-        <v>1189.682120649678</v>
+        <v>1189.682120649692</v>
       </c>
       <c r="D66">
-        <v>24393.99656867203</v>
+        <v>24393.996568672</v>
       </c>
       <c r="E66">
-        <v>4775.865948327637</v>
+        <v>4775.865948327636</v>
       </c>
       <c r="F66">
-        <v>4077.822058283487</v>
+        <v>4077.82205828349</v>
       </c>
       <c r="G66">
-        <v>6.185401847154518</v>
+        <v>6.185401847154512</v>
       </c>
       <c r="H66">
         <v>33.84563511982795</v>
       </c>
       <c r="I66">
-        <v>8.437969692689738E-09</v>
+        <v>8.437969692689786E-09</v>
       </c>
       <c r="J66">
-        <v>6.92245038407333E-09</v>
+        <v>6.92245038407338E-09</v>
       </c>
       <c r="K66">
-        <v>8.581910276840663E-05</v>
+        <v>8.581910276840621E-05</v>
       </c>
       <c r="L66">
-        <v>0.08974207020166011</v>
+        <v>0.08974207020165986</v>
       </c>
       <c r="M66">
-        <v>636.1813848077722</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.08974082382723544</v>
+      </c>
+      <c r="N66">
+        <v>636.181384807771</v>
+      </c>
+      <c r="O66">
+        <v>1.24637442441384E-06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>107.9994323377605</v>
+        <v>107.9994323377608</v>
       </c>
       <c r="B67">
-        <v>927175.6655352615</v>
+        <v>927175.665535266</v>
       </c>
       <c r="C67">
-        <v>1263.947153945452</v>
+        <v>1263.947153945455</v>
       </c>
       <c r="D67">
-        <v>24210.69365010437</v>
+        <v>24210.69365010432</v>
       </c>
       <c r="E67">
-        <v>4718.608267866407</v>
+        <v>4718.608267866398</v>
       </c>
       <c r="F67">
-        <v>4023.348668586721</v>
+        <v>4023.348668586713</v>
       </c>
       <c r="G67">
-        <v>6.14161179168375</v>
+        <v>6.141611791683708</v>
       </c>
       <c r="H67">
-        <v>34.58791396763061</v>
+        <v>34.58791396763075</v>
       </c>
       <c r="I67">
-        <v>8.893170854154539E-09</v>
+        <v>8.893170854154647E-09</v>
       </c>
       <c r="J67">
-        <v>7.15482668305248E-09</v>
+        <v>7.154826683052542E-09</v>
       </c>
       <c r="K67">
-        <v>8.353606035458393E-05</v>
+        <v>8.353606035458329E-05</v>
       </c>
       <c r="L67">
-        <v>0.08827858760954373</v>
+        <v>0.08827858760954332</v>
       </c>
       <c r="M67">
-        <v>626.1921307975383</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.0882773090760635</v>
+      </c>
+      <c r="N67">
+        <v>626.1921307975365</v>
+      </c>
+      <c r="O67">
+        <v>1.278533479820573E-06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>108.9489730126916</v>
+        <v>108.9489730126918</v>
       </c>
       <c r="B68">
-        <v>983697.4517438653</v>
+        <v>983697.4517438825</v>
       </c>
       <c r="C68">
-        <v>1342.087117379451</v>
+        <v>1342.087117379476</v>
       </c>
       <c r="D68">
-        <v>24024.15533134955</v>
+        <v>24024.15533134952</v>
       </c>
       <c r="E68">
-        <v>4659.674840241513</v>
+        <v>4659.674840241507</v>
       </c>
       <c r="F68">
-        <v>3967.660070482817</v>
+        <v>3967.660070482814</v>
       </c>
       <c r="G68">
-        <v>6.098332502983759</v>
+        <v>6.098332502983755</v>
       </c>
       <c r="H68">
-        <v>35.37826650779968</v>
+        <v>35.37826650779979</v>
       </c>
       <c r="I68">
-        <v>9.386918517511187E-09</v>
+        <v>9.386918517511268E-09</v>
       </c>
       <c r="J68">
-        <v>7.393840860605809E-09</v>
+        <v>7.393840860605854E-09</v>
       </c>
       <c r="K68">
-        <v>8.130672004919148E-05</v>
+        <v>8.130672004919106E-05</v>
       </c>
       <c r="L68">
-        <v>0.086822761444228</v>
+        <v>0.08682276144422776</v>
       </c>
       <c r="M68">
-        <v>616.1422273598065</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.0868214503798266</v>
+      </c>
+      <c r="N68">
+        <v>616.1422273598048</v>
+      </c>
+      <c r="O68">
+        <v>1.311064401166441E-06</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>109.8985136876226</v>
+        <v>109.8985136876229</v>
       </c>
       <c r="B69">
-        <v>1042653.629220169</v>
+        <v>1042653.629220168</v>
       </c>
       <c r="C69">
-        <v>1424.32149501898</v>
+        <v>1424.321495018972</v>
       </c>
       <c r="D69">
-        <v>23834.20725638566</v>
+        <v>23834.2072563856</v>
       </c>
       <c r="E69">
-        <v>4598.981457024549</v>
+        <v>4598.981457024543</v>
       </c>
       <c r="F69">
-        <v>3910.692246204334</v>
+        <v>3910.692246204323</v>
       </c>
       <c r="G69">
-        <v>6.055608889960549</v>
+        <v>6.055608889960564</v>
       </c>
       <c r="H69">
-        <v>36.21979141963027</v>
+        <v>36.21979141963065</v>
       </c>
       <c r="I69">
-        <v>9.92352792947646E-09</v>
+        <v>9.923527929476679E-09</v>
       </c>
       <c r="J69">
-        <v>7.639901036163495E-09</v>
+        <v>7.639901036163581E-09</v>
       </c>
       <c r="K69">
-        <v>7.91288001818148E-05</v>
+        <v>7.91288001818141E-05</v>
       </c>
       <c r="L69">
-        <v>0.0853715997256589</v>
+        <v>0.0853715997256584</v>
       </c>
       <c r="M69">
-        <v>606.0295336339316</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.08537025574103874</v>
+      </c>
+      <c r="N69">
+        <v>606.0295336339274</v>
+      </c>
+      <c r="O69">
+        <v>1.34398461966663E-06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>110.8480543625537</v>
+        <v>110.8480543625539</v>
       </c>
       <c r="B70">
-        <v>1104106.065069019</v>
+        <v>1104106.06506903</v>
       </c>
       <c r="C70">
-        <v>1510.890967204263</v>
+        <v>1510.890967204277</v>
       </c>
       <c r="D70">
-        <v>23640.66759126614</v>
+        <v>23640.66759126608</v>
       </c>
       <c r="E70">
-        <v>4536.437192174943</v>
+        <v>4536.43719217493</v>
       </c>
       <c r="F70">
-        <v>3852.375981784005</v>
+        <v>3852.375981783991</v>
       </c>
       <c r="G70">
-        <v>6.013502059035025</v>
+        <v>6.013502059034964</v>
       </c>
       <c r="H70">
-        <v>37.11600501219438</v>
+        <v>37.11600501219456</v>
       </c>
       <c r="I70">
-        <v>1.050792339206295E-08</v>
+        <v>1.050792339206312E-08</v>
       </c>
       <c r="J70">
-        <v>7.893455763799522E-09</v>
+        <v>7.893455763799598E-09</v>
       </c>
       <c r="K70">
-        <v>7.700012976587208E-05</v>
+        <v>7.700012976587146E-05</v>
       </c>
       <c r="L70">
-        <v>0.08392238281970099</v>
+        <v>0.08392238281970052</v>
       </c>
       <c r="M70">
-        <v>595.8520291813912</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.08392100550609422</v>
+      </c>
+      <c r="N70">
+        <v>595.8520291813887</v>
+      </c>
+      <c r="O70">
+        <v>1.377313606303335E-06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>111.7975950374847</v>
+        <v>111.797595037485</v>
       </c>
       <c r="B71">
-        <v>1168117.792927515</v>
+        <v>1168117.792927538</v>
       </c>
       <c r="C71">
-        <v>1602.060399113842</v>
+        <v>1602.060399113876</v>
       </c>
       <c r="D71">
-        <v>23443.34638909505</v>
+        <v>23443.34638909501</v>
       </c>
       <c r="E71">
-        <v>4471.943608126085</v>
+        <v>4471.943608126065</v>
       </c>
       <c r="F71">
-        <v>3792.636193613854</v>
+        <v>3792.636193613841</v>
       </c>
       <c r="G71">
-        <v>5.972089343213129</v>
+        <v>5.972089343213112</v>
       </c>
       <c r="H71">
-        <v>38.07090472190882</v>
+        <v>38.0709047219089</v>
       </c>
       <c r="I71">
-        <v>1.114574478040969E-08</v>
+        <v>1.11457447804098E-08</v>
       </c>
       <c r="J71">
-        <v>8.154996831110776E-09</v>
+        <v>8.15499683111084E-09</v>
       </c>
       <c r="K71">
-        <v>7.491862466794341E-05</v>
+        <v>7.491862466794301E-05</v>
       </c>
       <c r="L71">
-        <v>0.08247269925441292</v>
+        <v>0.0824726992544126</v>
       </c>
       <c r="M71">
-        <v>585.6077925261067</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.08247128818165958</v>
+      </c>
+      <c r="N71">
+        <v>585.607792526105</v>
+      </c>
+      <c r="O71">
+        <v>1.411072753023743E-06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>112.7471357124158</v>
+        <v>112.7471357124161</v>
       </c>
       <c r="B72">
-        <v>1234753.191075691</v>
+        <v>1234753.191075713</v>
       </c>
       <c r="C72">
-        <v>1698.12228376657</v>
+        <v>1698.122283766602</v>
       </c>
       <c r="D72">
-        <v>23242.04488754936</v>
+        <v>23242.0448875493</v>
       </c>
       <c r="E72">
-        <v>4405.393888453296</v>
+        <v>4405.39388845328</v>
       </c>
       <c r="F72">
-        <v>3731.391181551444</v>
+        <v>3731.391181551427</v>
       </c>
       <c r="G72">
-        <v>5.931464514556498</v>
+        <v>5.931464514556513</v>
       </c>
       <c r="H72">
-        <v>39.08904755121325</v>
+        <v>39.0890475512138</v>
       </c>
       <c r="I72">
-        <v>1.184347699107408E-08</v>
+        <v>1.184347699107438E-08</v>
       </c>
       <c r="J72">
-        <v>8.425062386117113E-09</v>
+        <v>8.425062386117196E-09</v>
       </c>
       <c r="K72">
-        <v>7.28822674513992E-05</v>
+        <v>7.288226745139856E-05</v>
       </c>
       <c r="L72">
-        <v>0.08102047509701206</v>
+        <v>0.0810204750970116</v>
       </c>
       <c r="M72">
-        <v>575.2949763570434</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.08101902981177324</v>
+      </c>
+      <c r="N72">
+        <v>575.294976357039</v>
+      </c>
+      <c r="O72">
+        <v>1.445285238363854E-06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>113.6966763873468</v>
+        <v>113.6966763873471</v>
       </c>
       <c r="B73">
-        <v>1304078.183547822</v>
+        <v>1304078.183547815</v>
       </c>
       <c r="C73">
-        <v>1799.40070409393</v>
+        <v>1799.400704093905</v>
       </c>
       <c r="D73">
-        <v>23036.55471972811</v>
+        <v>23036.55471972806</v>
       </c>
       <c r="E73">
-        <v>4336.671893149164</v>
+        <v>4336.671893149157</v>
       </c>
       <c r="F73">
-        <v>3668.551801126105</v>
+        <v>3668.551801126096</v>
       </c>
       <c r="G73">
-        <v>5.891738169075344</v>
+        <v>5.891738169075318</v>
       </c>
       <c r="H73">
-        <v>40.17564741053307</v>
+        <v>40.17564741053328</v>
       </c>
       <c r="I73">
-        <v>1.260860831626379E-08</v>
+        <v>1.260860831626397E-08</v>
       </c>
       <c r="J73">
-        <v>8.704240459098763E-09</v>
+        <v>8.704240459098839E-09</v>
       </c>
       <c r="K73">
-        <v>7.088909077293063E-05</v>
+        <v>7.088909077293007E-05</v>
       </c>
       <c r="L73">
-        <v>0.07956399921513653</v>
+        <v>0.07956399921513616</v>
       </c>
       <c r="M73">
-        <v>564.9117791115805</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.07956251923925858</v>
+      </c>
+      <c r="N73">
+        <v>564.9117791115782</v>
+      </c>
+      <c r="O73">
+        <v>1.479975877568347E-06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>114.6462170622779</v>
+        <v>114.6462170622782</v>
       </c>
       <c r="B74">
-        <v>1376160.464755603</v>
+        <v>1376160.464755626</v>
       </c>
       <c r="C74">
-        <v>1906.255883348009</v>
+        <v>1906.255883348046</v>
       </c>
       <c r="D74">
-        <v>22826.65701302138</v>
+        <v>22826.65701302135</v>
       </c>
       <c r="E74">
-        <v>4265.651134807383</v>
+        <v>4265.651134807353</v>
       </c>
       <c r="F74">
-        <v>3604.020548124258</v>
+        <v>3604.020548124234</v>
       </c>
       <c r="G74">
-        <v>5.853038275113984</v>
+        <v>5.853038275113964</v>
       </c>
       <c r="H74">
-        <v>41.33669653346895</v>
+        <v>41.33669653346905</v>
       </c>
       <c r="I74">
-        <v>1.344982559808105E-08</v>
+        <v>1.344982559808117E-08</v>
       </c>
       <c r="J74">
-        <v>8.993172962833014E-09</v>
+        <v>8.993172962833067E-09</v>
       </c>
       <c r="K74">
-        <v>6.893716419189814E-05</v>
+        <v>6.893716419189781E-05</v>
       </c>
       <c r="L74">
-        <v>0.07810194554377067</v>
+        <v>0.07810194554377045</v>
       </c>
       <c r="M74">
-        <v>554.4564126642978</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.07810043037281296</v>
+      </c>
+      <c r="N74">
+        <v>554.4564126642964</v>
+      </c>
+      <c r="O74">
+        <v>1.515170957488992E-06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>115.5957577372089</v>
+        <v>115.5957577372092</v>
       </c>
       <c r="B75">
-        <v>1451069.747206286</v>
+        <v>1451069.747206338</v>
       </c>
       <c r="C75">
-        <v>2019.089394686321</v>
+        <v>2019.089394686413</v>
       </c>
       <c r="D75">
-        <v>22612.12134268302</v>
+        <v>22612.12134268297</v>
       </c>
       <c r="E75">
-        <v>4192.193678082138</v>
+        <v>4192.193678082097</v>
       </c>
       <c r="F75">
-        <v>3537.690550734007</v>
+        <v>3537.690550733977</v>
       </c>
       <c r="G75">
-        <v>5.815510878370344</v>
+        <v>5.815510878370329</v>
       </c>
       <c r="H75">
-        <v>42.57911774573474</v>
+        <v>42.57911774573489</v>
       </c>
       <c r="I75">
-        <v>1.437725654158566E-08</v>
+        <v>1.437725654158584E-08</v>
       </c>
       <c r="J75">
-        <v>9.292560276736008E-09</v>
+        <v>9.292560276736084E-09</v>
       </c>
       <c r="K75">
-        <v>6.702458422621987E-05</v>
+        <v>6.702458422621945E-05</v>
       </c>
       <c r="L75">
-        <v>0.0766333924792431</v>
+        <v>0.07663339247924278</v>
       </c>
       <c r="M75">
-        <v>543.9270658719047</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.07663184158118583</v>
+      </c>
+      <c r="N75">
+        <v>543.9270658719026</v>
+      </c>
+      <c r="O75">
+        <v>1.550898056945307E-06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>116.54529841214</v>
+        <v>116.5452984121403</v>
       </c>
       <c r="B76">
-        <v>1528878.030425897</v>
+        <v>1528878.030425938</v>
       </c>
       <c r="C76">
-        <v>2138.350096553998</v>
+        <v>2138.350096554071</v>
       </c>
       <c r="D76">
-        <v>22392.7044962493</v>
+        <v>22392.70449624924</v>
       </c>
       <c r="E76">
-        <v>4116.148971605775</v>
+        <v>4116.148971605734</v>
       </c>
       <c r="F76">
-        <v>3469.444468251786</v>
+        <v>3469.444468251752</v>
       </c>
       <c r="G76">
-        <v>5.779320958969295</v>
+        <v>5.779320958969277</v>
       </c>
       <c r="H76">
-        <v>43.91095653489516</v>
+        <v>43.91095653489553</v>
       </c>
       <c r="I76">
-        <v>1.540277302813983E-08</v>
+        <v>1.540277302814011E-08</v>
       </c>
       <c r="J76">
-        <v>9.603166549879276E-09</v>
+        <v>9.60316654987936E-09</v>
       </c>
       <c r="K76">
-        <v>6.514946745278175E-05</v>
+        <v>6.514946745278123E-05</v>
       </c>
       <c r="L76">
-        <v>0.07515783872079929</v>
+        <v>0.0751578387207989</v>
       </c>
       <c r="M76">
-        <v>533.3218637715191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.07515625153494508</v>
+      </c>
+      <c r="N76">
+        <v>533.3218637715166</v>
+      </c>
+      <c r="O76">
+        <v>1.587185853812986E-06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>117.494839087071</v>
+        <v>117.4948390870713</v>
       </c>
       <c r="B77">
-        <v>1609659.886921435</v>
+        <v>1609659.886921464</v>
       </c>
       <c r="C77">
-        <v>2264.540846079886</v>
+        <v>2264.540846079933</v>
       </c>
       <c r="D77">
-        <v>22168.14899102502</v>
+        <v>22168.14899102495</v>
       </c>
       <c r="E77">
-        <v>4037.352632496609</v>
+        <v>4037.352632496581</v>
       </c>
       <c r="F77">
-        <v>3399.153302214433</v>
+        <v>3399.153302214408</v>
       </c>
       <c r="G77">
-        <v>5.744653438821707</v>
+        <v>5.744653438821744</v>
       </c>
       <c r="H77">
-        <v>45.34162481200929</v>
+        <v>45.34162481200977</v>
       </c>
       <c r="I77">
-        <v>1.654037406873834E-08</v>
+        <v>1.65403740687387E-08</v>
       </c>
       <c r="J77">
-        <v>9.925825897391329E-09</v>
+        <v>9.925825897391424E-09</v>
       </c>
       <c r="K77">
-        <v>6.330994640200196E-05</v>
+        <v>6.330994640200143E-05</v>
       </c>
       <c r="L77">
-        <v>0.07367521427017726</v>
+        <v>0.07367521427017683</v>
       </c>
       <c r="M77">
-        <v>522.6388222920723</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.0736735902062558</v>
+      </c>
+      <c r="N77">
+        <v>522.6388222920688</v>
+      </c>
+      <c r="O77">
+        <v>1.62406392102692E-06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>118.4443797620021</v>
+        <v>118.4443797620024</v>
       </c>
       <c r="B78">
-        <v>1693492.757574056</v>
+        <v>1693492.757574091</v>
       </c>
       <c r="C78">
-        <v>2398.226011308935</v>
+        <v>2398.226011308997</v>
       </c>
       <c r="D78">
-        <v>21938.18126836541</v>
+        <v>21938.18126836535</v>
       </c>
       <c r="E78">
-        <v>3955.62522058664</v>
+        <v>3955.62522058661</v>
       </c>
       <c r="F78">
-        <v>3326.675137336126</v>
+        <v>3326.675137336102</v>
       </c>
       <c r="G78">
-        <v>5.711714341279683</v>
+        <v>5.711714341279671</v>
       </c>
       <c r="H78">
-        <v>46.88221230351252</v>
+        <v>46.88221230351293</v>
       </c>
       <c r="I78">
-        <v>1.780667376065586E-08</v>
+        <v>1.780667376065619E-08</v>
       </c>
       <c r="J78">
-        <v>1.026144971810849E-08</v>
+        <v>1.026144971810858E-08</v>
       </c>
       <c r="K78">
-        <v>6.150416793092661E-05</v>
+        <v>6.150416793092615E-05</v>
       </c>
       <c r="L78">
-        <v>0.07218588487399853</v>
+        <v>0.07218588487399816</v>
       </c>
       <c r="M78">
-        <v>511.8757984061451</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.07218422331148329</v>
+      </c>
+      <c r="N78">
+        <v>511.8757984061425</v>
+      </c>
+      <c r="O78">
+        <v>1.661562514866958E-06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>119.3939204369331</v>
+        <v>119.3939204369334</v>
       </c>
       <c r="B79">
-        <v>1780457.24374267</v>
+        <v>1780457.24374268</v>
       </c>
       <c r="C79">
-        <v>2540.039744448944</v>
+        <v>2540.039744448947</v>
       </c>
       <c r="D79">
-        <v>21702.50946369248</v>
+        <v>21702.50946369239</v>
       </c>
       <c r="E79">
-        <v>3870.771065091329</v>
+        <v>3870.77106509132</v>
       </c>
       <c r="F79">
-        <v>3251.853848062152</v>
+        <v>3251.853848062136</v>
       </c>
       <c r="G79">
         <v>5.680732110564908</v>
       </c>
       <c r="H79">
-        <v>48.54588714960182</v>
+        <v>48.54588714960294</v>
       </c>
       <c r="I79">
-        <v>1.922152914791759E-08</v>
+        <v>1.922152914791834E-08</v>
       </c>
       <c r="J79">
-        <v>1.061103543383598E-08</v>
+        <v>1.061103543383611E-08</v>
       </c>
       <c r="K79">
-        <v>5.973029367120783E-05</v>
+        <v>5.973029367120714E-05</v>
       </c>
       <c r="L79">
-        <v>0.07069064794923591</v>
+        <v>0.07069064794923531</v>
       </c>
       <c r="M79">
-        <v>501.0304356976107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.07068894823687465</v>
+      </c>
+      <c r="N79">
+        <v>501.0304356976056</v>
+      </c>
+      <c r="O79">
+        <v>1.699712360666712E-06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>120.3434611118642</v>
+        <v>120.3434611118645</v>
       </c>
       <c r="B80">
-        <v>1870637.375887877</v>
+        <v>1870637.375887929</v>
       </c>
       <c r="C80">
-        <v>2690.694877515088</v>
+        <v>2690.694877515193</v>
       </c>
       <c r="D80">
-        <v>21460.82061752483</v>
+        <v>21460.82061752475</v>
       </c>
       <c r="E80">
-        <v>3782.577243765198</v>
+        <v>3782.57724376515</v>
       </c>
       <c r="F80">
-        <v>3174.517834892302</v>
+        <v>3174.517834892263</v>
       </c>
       <c r="G80">
-        <v>5.651959106633622</v>
+        <v>5.651959106633587</v>
       </c>
       <c r="H80">
-        <v>50.34841525738254</v>
+        <v>50.34841525738319</v>
       </c>
       <c r="I80">
-        <v>2.080885659657234E-08</v>
+        <v>2.080885659657294E-08</v>
       </c>
       <c r="J80">
-        <v>1.097567705000385E-08</v>
+        <v>1.097567705000397E-08</v>
       </c>
       <c r="K80">
-        <v>5.798650202943273E-05</v>
+        <v>5.798650202943212E-05</v>
       </c>
       <c r="L80">
-        <v>0.06919071796518907</v>
+        <v>0.06919071796518853</v>
       </c>
       <c r="M80">
-        <v>490.1001053036103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.0691889794207452</v>
+      </c>
+      <c r="N80">
+        <v>490.1001053036065</v>
+      </c>
+      <c r="O80">
+        <v>1.738544443322733E-06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>121.2930017867952</v>
+        <v>121.2930017867955</v>
       </c>
       <c r="B81">
-        <v>1964120.827805689</v>
+        <v>1964120.827805716</v>
       </c>
       <c r="C81">
-        <v>2850.992138324083</v>
+        <v>2850.992138324127</v>
       </c>
       <c r="D81">
-        <v>21212.77714636777</v>
+        <v>21212.77714636768</v>
       </c>
       <c r="E81">
-        <v>3690.812866973188</v>
+        <v>3690.812866973159</v>
       </c>
       <c r="F81">
-        <v>3094.47889647538</v>
+        <v>3094.478896475352</v>
       </c>
       <c r="G81">
-        <v>5.62567330373067</v>
+        <v>5.625673303730661</v>
       </c>
       <c r="H81">
-        <v>52.3088394187697</v>
+        <v>52.30883941877067</v>
       </c>
       <c r="I81">
-        <v>2.259770529924563E-08</v>
+        <v>2.259770529924644E-08</v>
       </c>
       <c r="J81">
-        <v>1.1356578075434E-08</v>
+        <v>1.135657807543415E-08</v>
       </c>
       <c r="K81">
-        <v>5.627099105634413E-05</v>
+        <v>5.627099105634346E-05</v>
       </c>
       <c r="L81">
-        <v>0.06768769935756874</v>
+        <v>0.06768769935756816</v>
       </c>
       <c r="M81">
-        <v>479.0818420278926</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.06768592126775488</v>
+      </c>
+      <c r="N81">
+        <v>479.0818420278881</v>
+      </c>
+      <c r="O81">
+        <v>1.778089813269638E-06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>122.2425424617263</v>
+        <v>122.2425424617266</v>
       </c>
       <c r="B82">
-        <v>2060999.030501924</v>
+        <v>2060999.030501955</v>
       </c>
       <c r="C82">
-        <v>3021.829132968697</v>
+        <v>3021.829132968757</v>
       </c>
       <c r="D82">
-        <v>20958.01232704624</v>
+        <v>20958.01232704617</v>
       </c>
       <c r="E82">
-        <v>3595.228888910669</v>
+        <v>3595.228888910644</v>
       </c>
       <c r="F82">
-        <v>3011.531402387014</v>
+        <v>3011.531402386994</v>
       </c>
       <c r="G82">
-        <v>5.602180240431357</v>
+        <v>5.602180240431339</v>
       </c>
       <c r="H82">
-        <v>54.45037598808863</v>
+        <v>54.45037598808891</v>
       </c>
       <c r="I82">
-        <v>2.462368619046908E-08</v>
+        <v>2.462368619046954E-08</v>
       </c>
       <c r="J82">
-        <v>1.175506753300297E-08</v>
+        <v>1.175506753300308E-08</v>
       </c>
       <c r="K82">
-        <v>5.458198128263614E-05</v>
+        <v>5.458198128263571E-05</v>
       </c>
       <c r="L82">
-        <v>0.06618354530019774</v>
+        <v>0.06618354530019734</v>
       </c>
       <c r="M82">
-        <v>467.9722749839156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.06618172692077449</v>
+      </c>
+      <c r="N82">
+        <v>467.9722749839128</v>
+      </c>
+      <c r="O82">
+        <v>1.818379422842314E-06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>123.1920831366573</v>
+        <v>123.1920831366577</v>
       </c>
       <c r="B83">
-        <v>2161367.119181654</v>
+        <v>2161367.119181733</v>
       </c>
       <c r="C83">
-        <v>3204.208173656793</v>
+        <v>3204.208173656983</v>
       </c>
       <c r="D83">
-        <v>20696.12445447809</v>
+        <v>20696.12445447803</v>
       </c>
       <c r="E83">
-        <v>3495.558753954965</v>
+        <v>3495.558753954892</v>
       </c>
       <c r="F83">
-        <v>2925.452009115877</v>
+        <v>2925.452009115823</v>
       </c>
       <c r="G83">
-        <v>5.581815299596358</v>
+        <v>5.581815299596352</v>
       </c>
       <c r="H83">
-        <v>56.80161199337246</v>
+        <v>56.80161199337306</v>
       </c>
       <c r="I83">
-        <v>2.693089936024629E-08</v>
+        <v>2.693089936024686E-08</v>
       </c>
       <c r="J83">
-        <v>1.217262007051769E-08</v>
+        <v>1.217262007051779E-08</v>
       </c>
       <c r="K83">
-        <v>5.291771731939687E-05</v>
+        <v>5.291771731939648E-05</v>
       </c>
       <c r="L83">
-        <v>0.06468050101629942</v>
+        <v>0.06468050101629907</v>
       </c>
       <c r="M83">
-        <v>456.7675511991141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.06467864157228487</v>
+      </c>
+      <c r="N83">
+        <v>456.7675511991116</v>
+      </c>
+      <c r="O83">
+        <v>1.859444014210059E-06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>124.1416238115884</v>
+        <v>124.1416238115887</v>
       </c>
       <c r="B84">
-        <v>2265323.619866985</v>
+        <v>2265323.619867057</v>
       </c>
       <c r="C84">
-        <v>3399.241532262004</v>
+        <v>3399.241532262176</v>
       </c>
       <c r="D84">
-        <v>20426.66919594151</v>
+        <v>20426.66919594143</v>
       </c>
       <c r="E84">
-        <v>3391.52027665392</v>
+        <v>3391.520276653854</v>
       </c>
       <c r="F84">
-        <v>2836.000253571629</v>
+        <v>2836.000253571578</v>
       </c>
       <c r="G84">
-        <v>5.564946444905669</v>
+        <v>5.564946444905667</v>
       </c>
       <c r="H84">
-        <v>59.39812385313388</v>
+        <v>59.39812385313483</v>
       </c>
       <c r="I84">
-        <v>2.957457210409625E-08</v>
+        <v>2.957457210409708E-08</v>
       </c>
       <c r="J84">
-        <v>1.261088158528568E-08</v>
+        <v>1.261088158528581E-08</v>
       </c>
       <c r="K84">
-        <v>5.127646660731546E-05</v>
+        <v>5.127646660731501E-05</v>
       </c>
       <c r="L84">
-        <v>0.06318103070608234</v>
+        <v>0.06318103070608191</v>
       </c>
       <c r="M84">
-        <v>445.4632488690302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.06317912939199317</v>
+      </c>
+      <c r="N84">
+        <v>445.4632488690272</v>
+      </c>
+      <c r="O84">
+        <v>1.901314088736713E-06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>125.0911644865194</v>
+        <v>125.0911644865198</v>
       </c>
       <c r="B85">
-        <v>2372969.748943333</v>
+        <v>2372969.748943301</v>
       </c>
       <c r="C85">
-        <v>3608.152095220893</v>
+        <v>3608.152095220756</v>
       </c>
       <c r="D85">
-        <v>20149.14946079434</v>
+        <v>20149.1494607942</v>
       </c>
       <c r="E85">
-        <v>3282.819217204855</v>
+        <v>3282.81921720488</v>
       </c>
       <c r="F85">
-        <v>2742.920445110464</v>
+        <v>2742.920445110472</v>
       </c>
       <c r="G85">
-        <v>5.551977616892247</v>
+        <v>5.551977616892272</v>
       </c>
       <c r="H85">
-        <v>62.28469874729733</v>
+        <v>62.2846987472993</v>
       </c>
       <c r="I85">
-        <v>3.262472857444977E-08</v>
+        <v>3.262472857445167E-08</v>
       </c>
       <c r="J85">
-        <v>1.307170237569657E-08</v>
+        <v>1.307170237569678E-08</v>
       </c>
       <c r="K85">
-        <v>4.965651312151221E-05</v>
+        <v>4.965651312151141E-05</v>
       </c>
       <c r="L85">
-        <v>0.06168772750000949</v>
+        <v>0.06168772750000875</v>
       </c>
       <c r="M85">
-        <v>434.0542739111693</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.06168578348000833</v>
+      </c>
+      <c r="N85">
+        <v>434.0542739111627</v>
+      </c>
+      <c r="O85">
+        <v>1.944020000417552E-06</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>126.0407051614505</v>
+        <v>126.0407051614508</v>
       </c>
       <c r="B86">
-        <v>2484408.16213046</v>
+        <v>2484408.162130536</v>
       </c>
       <c r="C86">
-        <v>3832.266810450618</v>
+        <v>3832.266810450817</v>
       </c>
       <c r="D86">
-        <v>19863.00179561575</v>
+        <v>19863.00179561567</v>
       </c>
       <c r="E86">
-        <v>3169.154979576773</v>
+        <v>3169.15497957669</v>
       </c>
       <c r="F86">
-        <v>2645.945309482739</v>
+        <v>2645.945309482677</v>
       </c>
       <c r="G86">
-        <v>5.543353112159681</v>
+        <v>5.543353112159663</v>
       </c>
       <c r="H86">
-        <v>65.51843571654238</v>
+        <v>65.51843571654292</v>
       </c>
       <c r="I86">
-        <v>3.617138783159634E-08</v>
+        <v>3.617138783159715E-08</v>
       </c>
       <c r="J86">
-        <v>1.355718074045868E-08</v>
+        <v>1.355718074045883E-08</v>
       </c>
       <c r="K86">
-        <v>4.805614302659254E-05</v>
+        <v>4.805614302659208E-05</v>
       </c>
       <c r="L86">
-        <v>0.06020320598154232</v>
+        <v>0.06020320598154191</v>
       </c>
       <c r="M86">
-        <v>422.5347284560194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.06020121838930711</v>
+      </c>
+      <c r="N86">
+        <v>422.5347284560169</v>
+      </c>
+      <c r="O86">
+        <v>1.987592234794827E-06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>126.9902458363815</v>
+        <v>126.9902458363819</v>
       </c>
       <c r="B87">
-        <v>2599740.956695544</v>
+        <v>2599740.956695598</v>
       </c>
       <c r="C87">
-        <v>4073.000081400974</v>
+        <v>4073.000081401102</v>
       </c>
       <c r="D87">
-        <v>19567.57784122838</v>
+        <v>19567.57784122829</v>
       </c>
       <c r="E87">
-        <v>3050.228592097809</v>
+        <v>3050.22859209775</v>
       </c>
       <c r="F87">
-        <v>2544.801714514375</v>
+        <v>2544.801714514325</v>
       </c>
       <c r="G87">
-        <v>5.539563460412378</v>
+        <v>5.53956346041238</v>
       </c>
       <c r="H87">
-        <v>69.17316185620544</v>
+        <v>69.17316185620656</v>
       </c>
       <c r="I87">
-        <v>4.033207912867693E-08</v>
+        <v>4.033207912867831E-08</v>
       </c>
       <c r="J87">
-        <v>1.406972134369191E-08</v>
+        <v>1.406972134369208E-08</v>
       </c>
       <c r="K87">
-        <v>4.647361812629556E-05</v>
+        <v>4.647361812629508E-05</v>
       </c>
       <c r="L87">
-        <v>0.05872997658527747</v>
+        <v>0.05872997658527701</v>
       </c>
       <c r="M87">
-        <v>410.8977320432126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.0587279445233144</v>
+      </c>
+      <c r="N87">
+        <v>410.8977320432089</v>
+      </c>
+      <c r="O87">
+        <v>2.032061962605711E-06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>127.9397865113126</v>
+        <v>127.9397865113129</v>
       </c>
       <c r="B88">
-        <v>2719066.718204187</v>
+        <v>2719066.718204199</v>
       </c>
       <c r="C88">
-        <v>4331.825049820667</v>
+        <v>4331.825049820645</v>
       </c>
       <c r="D88">
-        <v>19262.11865491504</v>
+        <v>19262.11865491491</v>
       </c>
       <c r="E88">
-        <v>2925.752410556529</v>
+        <v>2925.75241055651</v>
       </c>
       <c r="F88">
-        <v>2439.218348851679</v>
+        <v>2439.218348851656</v>
       </c>
       <c r="G88">
-        <v>5.541153614720342</v>
+        <v>5.541153614720344</v>
       </c>
       <c r="H88">
-        <v>73.34586785521721</v>
+        <v>73.34586785521948</v>
       </c>
       <c r="I88">
-        <v>4.526296337526316E-08</v>
+        <v>4.526296337526566E-08</v>
       </c>
       <c r="J88">
-        <v>1.461211485478794E-08</v>
+        <v>1.461211485478817E-08</v>
       </c>
       <c r="K88">
-        <v>4.490713131301145E-05</v>
+        <v>4.490713131301079E-05</v>
       </c>
       <c r="L88">
-        <v>0.05727030034575254</v>
+        <v>0.0572703003457519</v>
       </c>
       <c r="M88">
-        <v>399.1351644801951</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.05726822288375316</v>
+      </c>
+      <c r="N88">
+        <v>399.1351644801899</v>
+      </c>
+      <c r="O88">
+        <v>2.077461998740381E-06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>128.8893271862436</v>
+        <v>128.889327186244</v>
       </c>
       <c r="B89">
-        <v>2842476.438780286</v>
+        <v>2842476.438780316</v>
       </c>
       <c r="C89">
-        <v>4610.233644653562</v>
+        <v>4610.233644653601</v>
       </c>
       <c r="D89">
-        <v>18945.71855575491</v>
+        <v>18945.71855575477</v>
       </c>
       <c r="E89">
-        <v>2795.459516906428</v>
+        <v>2795.459516906381</v>
       </c>
       <c r="F89">
-        <v>2328.934170292155</v>
+        <v>2328.934170292112</v>
       </c>
       <c r="G89">
-        <v>5.54873474099459</v>
+        <v>5.54873474099457</v>
       </c>
       <c r="H89">
-        <v>78.16633920866997</v>
+        <v>78.16633920867147</v>
       </c>
       <c r="I89">
-        <v>5.117573584812369E-08</v>
+        <v>5.117573584812603E-08</v>
       </c>
       <c r="J89">
-        <v>1.518764886487757E-08</v>
+        <v>1.518764886487779E-08</v>
       </c>
       <c r="K89">
-        <v>4.335473587425301E-05</v>
+        <v>4.335473587425236E-05</v>
       </c>
       <c r="L89">
-        <v>0.05582602076383289</v>
+        <v>0.0558260207638323</v>
       </c>
       <c r="M89">
-        <v>387.2372824427301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.05582389693547406</v>
+      </c>
+      <c r="N89">
+        <v>387.2372824427255</v>
+      </c>
+      <c r="O89">
+        <v>2.123828358244607E-06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>129.8388678611747</v>
+        <v>129.838867861175</v>
       </c>
       <c r="B90">
-        <v>2970048.254617674</v>
+        <v>2970048.254617716</v>
       </c>
       <c r="C90">
-        <v>4909.692826932656</v>
+        <v>4909.692826932745</v>
       </c>
       <c r="D90">
-        <v>18617.27333018747</v>
+        <v>18617.27333018737</v>
       </c>
       <c r="E90">
-        <v>2659.108301855338</v>
+        <v>2659.108301855284</v>
       </c>
       <c r="F90">
-        <v>2213.704505773616</v>
+        <v>2213.70450577357</v>
       </c>
       <c r="G90">
-        <v>5.563001628168597</v>
+        <v>5.563001628168591</v>
       </c>
       <c r="H90">
-        <v>83.81201974820215</v>
+        <v>83.81201974820374</v>
       </c>
       <c r="I90">
-        <v>5.83641168612804E-08</v>
+        <v>5.836411686128261E-08</v>
       </c>
       <c r="J90">
-        <v>1.580026577176204E-08</v>
+        <v>1.580026577176223E-08</v>
       </c>
       <c r="K90">
-        <v>4.181423705860251E-05</v>
+        <v>4.181423705860208E-05</v>
       </c>
       <c r="L90">
-        <v>0.05439836651419762</v>
+        <v>0.0543983665141972</v>
       </c>
       <c r="M90">
-        <v>375.1921384253081</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.05439619531150505</v>
+      </c>
+      <c r="N90">
+        <v>375.1921384253046</v>
+      </c>
+      <c r="O90">
+        <v>2.17120269215446E-06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>130.7884085361057</v>
+        <v>130.7884085361061</v>
       </c>
       <c r="B91">
-        <v>3101841.193002388</v>
+        <v>3101841.193002567</v>
       </c>
       <c r="C91">
-        <v>5231.615828106747</v>
+        <v>5231.61582810748</v>
       </c>
       <c r="D91">
-        <v>18275.40466296399</v>
+        <v>18275.40466296404</v>
       </c>
       <c r="E91">
-        <v>2516.47419842965</v>
+        <v>2516.474198429457</v>
       </c>
       <c r="F91">
-        <v>2093.29874184398</v>
+        <v>2093.298741843845</v>
       </c>
       <c r="G91">
-        <v>5.584758898528653</v>
+        <v>5.584758898528597</v>
       </c>
       <c r="H91">
-        <v>90.53178031188325</v>
+        <v>90.53178031187942</v>
       </c>
       <c r="I91">
-        <v>6.724687621483295E-08</v>
+        <v>6.72468762148291E-08</v>
       </c>
       <c r="J91">
-        <v>1.645479285052854E-08</v>
+        <v>1.64547928505285E-08</v>
       </c>
       <c r="K91">
-        <v>4.028302898938538E-05</v>
+        <v>4.028302898938565E-05</v>
       </c>
       <c r="L91">
-        <v>0.05298771352296662</v>
+        <v>0.05298771352296681</v>
       </c>
       <c r="M91">
-        <v>362.9846983052238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.05298549388694216</v>
+      </c>
+      <c r="N91">
+        <v>362.9846983052282</v>
+      </c>
+      <c r="O91">
+        <v>2.219636024653617E-06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>131.7379492110368</v>
+        <v>131.7379492110371</v>
       </c>
       <c r="B92">
-        <v>3237888.483839194</v>
+        <v>3237888.483839262</v>
       </c>
       <c r="C92">
-        <v>5577.383060165992</v>
+        <v>5577.383060166219</v>
       </c>
       <c r="D92">
-        <v>17918.34756719917</v>
+        <v>17918.34756719908</v>
       </c>
       <c r="E92">
-        <v>2367.316487847262</v>
+        <v>2367.316487847188</v>
       </c>
       <c r="F92">
-        <v>1967.479874164967</v>
+        <v>1967.479874164909</v>
       </c>
       <c r="G92">
-        <v>5.614961083501667</v>
+        <v>5.614961083501669</v>
       </c>
       <c r="H92">
-        <v>98.6855376474318</v>
+        <v>98.685537647434</v>
       </c>
       <c r="I92">
-        <v>7.844069363427756E-08</v>
+        <v>7.84406936342806E-08</v>
       </c>
       <c r="J92">
-        <v>1.715728633926329E-08</v>
+        <v>1.715728633926348E-08</v>
       </c>
       <c r="K92">
-        <v>3.87578510704904E-05</v>
+        <v>3.875785107049002E-05</v>
       </c>
       <c r="L92">
-        <v>0.05159328580340317</v>
+        <v>0.05159328580340281</v>
       </c>
       <c r="M92">
-        <v>350.5955056033642</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.05159101660896401</v>
+      </c>
+      <c r="N92">
+        <v>350.5955056033613</v>
+      </c>
+      <c r="O92">
+        <v>2.269194438797778E-06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>132.6874898859678</v>
+        <v>132.6874898859682</v>
       </c>
       <c r="B93">
-        <v>3378191.402572133</v>
+        <v>3378191.402572289</v>
       </c>
       <c r="C93">
-        <v>5948.465132015586</v>
+        <v>5948.46513201629</v>
       </c>
       <c r="D93">
-        <v>17543.77826583444</v>
+        <v>17543.77826583448</v>
       </c>
       <c r="E93">
-        <v>2211.304448684586</v>
+        <v>2211.30444868441</v>
       </c>
       <c r="F93">
-        <v>1835.952492368238</v>
+        <v>1835.952492368113</v>
       </c>
       <c r="G93">
-        <v>5.654774905792333</v>
+        <v>5.654774905792277</v>
       </c>
       <c r="H93">
-        <v>108.8136186593967</v>
+        <v>108.8136186593918</v>
       </c>
       <c r="I93">
-        <v>9.288983446501996E-08</v>
+        <v>9.288983446501472E-08</v>
       </c>
       <c r="J93">
-        <v>1.791556198714386E-08</v>
+        <v>1.791556198714385E-08</v>
       </c>
       <c r="K93">
-        <v>3.723442128925128E-05</v>
+        <v>3.723442128925145E-05</v>
       </c>
       <c r="L93">
-        <v>0.05021275736244547</v>
+        <v>0.05021275736244556</v>
       </c>
       <c r="M93">
-        <v>337.9986567366955</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.05021043739468154</v>
+      </c>
+      <c r="N93">
+        <v>337.9986567366989</v>
+      </c>
+      <c r="O93">
+        <v>2.319967764017433E-06</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>133.6370305608989</v>
+        <v>133.6370305608992</v>
       </c>
       <c r="B94">
-        <v>3522714.894389044</v>
+        <v>3522714.894388934</v>
       </c>
       <c r="C94">
-        <v>6346.717383048627</v>
+        <v>6346.71738304778</v>
       </c>
       <c r="D94">
-        <v>17148.54150558667</v>
+        <v>17148.54150558616</v>
       </c>
       <c r="E94">
-        <v>2047.88384800627</v>
+        <v>2047.883848006406</v>
       </c>
       <c r="F94">
-        <v>1698.262253886853</v>
+        <v>1698.262253886932</v>
       </c>
       <c r="G94">
-        <v>5.705678342576214</v>
+        <v>5.705678342576443</v>
       </c>
       <c r="H94">
-        <v>121.7656444930758</v>
+        <v>121.7656444931035</v>
       </c>
       <c r="I94">
-        <v>1.121112919117584E-07</v>
+        <v>1.121112919117958E-07</v>
       </c>
       <c r="J94">
-        <v>1.87400449989326E-08</v>
+        <v>1.874004499893359E-08</v>
       </c>
       <c r="K94">
-        <v>3.57068692505213E-05</v>
+        <v>3.57068692505193E-05</v>
       </c>
       <c r="L94">
-        <v>0.04884168337027714</v>
+        <v>0.04884168337027549</v>
       </c>
       <c r="M94">
-        <v>325.1586784598767</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.04883931128714054</v>
+      </c>
+      <c r="N94">
+        <v>325.1586784598557</v>
+      </c>
+      <c r="O94">
+        <v>2.37208313495042E-06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>134.5865712358299</v>
+        <v>134.5865712358303</v>
       </c>
       <c r="B95">
-        <v>3671386.164168905</v>
+        <v>3671386.164169055</v>
       </c>
       <c r="C95">
-        <v>6774.938333886953</v>
+        <v>6774.938333887756</v>
       </c>
       <c r="D95">
-        <v>16728.19650096709</v>
+        <v>16728.19650096713</v>
       </c>
       <c r="E95">
-        <v>1876.057543648174</v>
+        <v>1876.057543647982</v>
       </c>
       <c r="F95">
-        <v>1553.623516253625</v>
+        <v>1553.623516253486</v>
       </c>
       <c r="G95">
-        <v>5.769624149136568</v>
+        <v>5.769624149136471</v>
       </c>
       <c r="H95">
-        <v>138.958406020678</v>
+        <v>138.9584060206674</v>
       </c>
       <c r="I95">
-        <v>1.386943400096958E-07</v>
+        <v>1.386943400096835E-07</v>
       </c>
       <c r="J95">
-        <v>1.964520182181086E-08</v>
+        <v>1.964520182181081E-08</v>
       </c>
       <c r="K95">
-        <v>3.416681473335146E-05</v>
+        <v>3.416681473335164E-05</v>
       </c>
       <c r="L95">
-        <v>0.04747261609793329</v>
+        <v>0.04747261609793337</v>
       </c>
       <c r="M95">
-        <v>312.0254995094079</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.0474701903708387</v>
+      </c>
+      <c r="N95">
+        <v>312.0254995094119</v>
+      </c>
+      <c r="O95">
+        <v>2.425727094679349E-06</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>135.536111910761</v>
+        <v>135.5361119107613</v>
       </c>
       <c r="B96">
-        <v>3824096.889588232</v>
+        <v>3824096.889588239</v>
       </c>
       <c r="C96">
-        <v>7237.850158153772</v>
+        <v>7237.850158153603</v>
       </c>
       <c r="D96">
-        <v>16276.20688668297</v>
+        <v>16276.20688668271</v>
       </c>
       <c r="E96">
-        <v>1694.027857851748</v>
+        <v>1694.027857851753</v>
       </c>
       <c r="F96">
-        <v>1400.630920517617</v>
+        <v>1400.630920517614</v>
       </c>
       <c r="G96">
-        <v>5.849325946610263</v>
+        <v>5.849325946610361</v>
       </c>
       <c r="H96">
-        <v>162.9433820547871</v>
+        <v>162.943382054807</v>
       </c>
       <c r="I96">
-        <v>1.774216861270857E-07</v>
+        <v>1.774216861271165E-07</v>
       </c>
       <c r="J96">
-        <v>2.065212075887145E-08</v>
+        <v>2.065212075887204E-08</v>
       </c>
       <c r="K96">
-        <v>3.260175280806938E-05</v>
+        <v>3.260175280806848E-05</v>
       </c>
       <c r="L96">
-        <v>0.04609359419931177</v>
+        <v>0.04609359419931102</v>
       </c>
       <c r="M96">
-        <v>298.5257233778792</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.0460911130150639</v>
+      </c>
+      <c r="N96">
+        <v>298.5257233778706</v>
+      </c>
+      <c r="O96">
+        <v>2.481184247114661E-06</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>136.485652585692</v>
+        <v>136.4856525856924</v>
       </c>
       <c r="B97">
-        <v>3980708.863552803</v>
+        <v>3980708.863552919</v>
       </c>
       <c r="C97">
-        <v>7743.882126767345</v>
+        <v>7743.88212676801</v>
       </c>
       <c r="D97">
-        <v>15782.35228286399</v>
+        <v>15782.35228286398</v>
       </c>
       <c r="E97">
-        <v>1498.562078695376</v>
+        <v>1498.562078695219</v>
       </c>
       <c r="F97">
-        <v>1236.741756710879</v>
+        <v>1236.74175671076</v>
       </c>
       <c r="G97">
-        <v>5.948804049566529</v>
+        <v>5.948804049566459</v>
       </c>
       <c r="H97">
-        <v>198.8260123011666</v>
+        <v>198.8260123011556</v>
       </c>
       <c r="I97">
-        <v>2.381335614539127E-07</v>
+        <v>2.381335614538992E-07</v>
       </c>
       <c r="J97">
-        <v>2.179361366515435E-08</v>
+        <v>2.179361366515442E-08</v>
       </c>
       <c r="K97">
-        <v>3.099191653111712E-05</v>
+        <v>3.099191653111713E-05</v>
       </c>
       <c r="L97">
-        <v>0.04468526646766691</v>
+        <v>0.04468526646766684</v>
       </c>
       <c r="M97">
-        <v>284.5457631719262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.04468272755567677</v>
+      </c>
+      <c r="N97">
+        <v>284.5457631719279</v>
+      </c>
+      <c r="O97">
+        <v>2.538911990063633E-06</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>137.4351932606231</v>
+        <v>137.4351932606234</v>
       </c>
       <c r="B98">
-        <v>4141062.056142404</v>
+        <v>4141062.05614233</v>
       </c>
       <c r="C98">
-        <v>8308.89810052302</v>
+        <v>8308.898100521672</v>
       </c>
       <c r="D98">
-        <v>15229.17230043202</v>
+        <v>15229.172300431</v>
       </c>
       <c r="E98">
-        <v>1283.659791524674</v>
+        <v>1283.659791524798</v>
       </c>
       <c r="F98">
-        <v>1057.187378049</v>
+        <v>1057.187378049064</v>
       </c>
       <c r="G98">
-        <v>6.074568034047223</v>
+        <v>6.074568034047683</v>
       </c>
       <c r="H98">
-        <v>258.5251694148695</v>
+        <v>258.5251694150803</v>
       </c>
       <c r="I98">
-        <v>3.445287413600086E-07</v>
+        <v>3.44528741360362E-07</v>
       </c>
       <c r="J98">
-        <v>2.312571183698289E-08</v>
+        <v>2.312571183698524E-08</v>
       </c>
       <c r="K98">
-        <v>2.930327125088379E-05</v>
+        <v>2.930327125088068E-05</v>
       </c>
       <c r="L98">
-        <v>0.04321462279184937</v>
+        <v>0.04321462279184698</v>
       </c>
       <c r="M98">
-        <v>269.894181776331</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.04321202308524601</v>
+      </c>
+      <c r="N98">
+        <v>269.8941817762981</v>
+      </c>
+      <c r="O98">
+        <v>2.599706600971118E-06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>138.3847339355542</v>
+        <v>138.3847339355545</v>
       </c>
       <c r="B99">
-        <v>4304983.660204225</v>
+        <v>4304983.660204169</v>
       </c>
       <c r="C99">
-        <v>8966.041730397164</v>
+        <v>8966.041730395722</v>
       </c>
       <c r="D99">
-        <v>14582.23570608876</v>
+        <v>14582.2357060878</v>
       </c>
       <c r="E99">
-        <v>1036.99067219599</v>
+        <v>1036.990672196135</v>
       </c>
       <c r="F99">
-        <v>852.0686061292583</v>
+        <v>852.06860612935</v>
       </c>
       <c r="G99">
-        <v>6.238734510232474</v>
+        <v>6.238734510232923</v>
       </c>
       <c r="H99">
-        <v>377.8182189417907</v>
+        <v>377.818218942151</v>
       </c>
       <c r="I99">
-        <v>5.703626741506505E-07</v>
+        <v>5.703626741513049E-07</v>
       </c>
       <c r="J99">
-        <v>2.475931465458188E-08</v>
+        <v>2.475931465458421E-08</v>
       </c>
       <c r="K99">
-        <v>2.746831801010698E-05</v>
+        <v>2.74683180101043E-05</v>
       </c>
       <c r="L99">
-        <v>0.0416183302844018</v>
+        <v>0.04161833028439975</v>
       </c>
       <c r="M99">
-        <v>254.1981564320957</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.04161566512760427</v>
+      </c>
+      <c r="N99">
+        <v>254.1981564320686</v>
+      </c>
+      <c r="O99">
+        <v>2.665156795477871E-06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>139.3342746104852</v>
+        <v>139.3342746104856</v>
       </c>
       <c r="B100">
-        <v>4472296.759564477</v>
+        <v>4472296.759564334</v>
       </c>
       <c r="C100">
-        <v>9804.038796293367</v>
+        <v>9804.038796288058</v>
       </c>
       <c r="D100">
-        <v>13751.88622020805</v>
+        <v>13751.8862202042</v>
       </c>
       <c r="E100">
-        <v>725.9331321965915</v>
+        <v>725.9331321969935</v>
       </c>
       <c r="F100">
-        <v>594.9776507311607</v>
+        <v>594.9776507314125</v>
       </c>
       <c r="G100">
-        <v>6.470760458007176</v>
+        <v>6.470760458008894</v>
       </c>
       <c r="H100">
-        <v>735.6800707951537</v>
+        <v>735.680070799337</v>
       </c>
       <c r="I100">
-        <v>1.302069554653153E-06</v>
+        <v>1.302069554661561E-06</v>
       </c>
       <c r="J100">
-        <v>2.698545650214802E-08</v>
+        <v>2.698545650215819E-08</v>
       </c>
       <c r="K100">
-        <v>2.531038341395313E-05</v>
+        <v>2.531038341394331E-05</v>
       </c>
       <c r="L100">
-        <v>0.03973913880124429</v>
+        <v>0.03973913880123687</v>
       </c>
       <c r="M100">
-        <v>236.4931706974994</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.03973639937181085</v>
+      </c>
+      <c r="N100">
+        <v>236.4931706974084</v>
+      </c>
+      <c r="O100">
+        <v>2.739429426014797E-06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>140.2838152854162</v>
+        <v>140.2838152854166</v>
       </c>
       <c r="B101">
-        <v>4642826.703453091</v>
+        <v>4642826.705384203</v>
       </c>
       <c r="C101">
-        <v>11821.58349108902</v>
+        <v>11821.05924280018</v>
       </c>
       <c r="D101">
-        <v>11825.86720043052</v>
+        <v>11826.37242908341</v>
       </c>
       <c r="E101">
-        <v>0.7835625257819212</v>
+        <v>0.9718715213503573</v>
       </c>
       <c r="F101">
-        <v>0.6412989182841019</v>
+        <v>0.7954183082376856</v>
       </c>
       <c r="G101">
-        <v>7.034154367253365</v>
+        <v>7.034013976242587</v>
       </c>
       <c r="H101">
-        <v>9788818.814979792</v>
+        <v>7863278.200394492</v>
       </c>
       <c r="I101">
-        <v>0.0248198011297264</v>
+        <v>0.01993571067006792</v>
       </c>
       <c r="J101">
-        <v>3.282242642162586E-08</v>
+        <v>3.28207485972511E-08</v>
       </c>
       <c r="K101">
-        <v>2.101391173692941E-05</v>
+        <v>2.101492747981334E-05</v>
       </c>
       <c r="L101">
-        <v>0.03607522348016218</v>
+        <v>0.03607605118347539</v>
       </c>
       <c r="M101">
-        <v>206.8497437830651</v>
+        <v>0.03607318583660071</v>
+      </c>
+      <c r="N101">
+        <v>206.8554307517232</v>
+      </c>
+      <c r="O101">
+        <v>2.865346874675716E-06</v>
       </c>
     </row>
   </sheetData>
